--- a/data/processed_data/clean_data_temp/年报-股东股权转让.xlsx
+++ b/data/processed_data/clean_data_temp/年报-股东股权转让.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4321" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4321" uniqueCount="820">
   <si>
     <t>企业编号</t>
   </si>
@@ -799,1066 +799,1069 @@
     <t>2014-03-10</t>
   </si>
   <si>
+    <t>1000-01-01</t>
+  </si>
+  <si>
+    <t>2014-05-27</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>2014-11-18</t>
+  </si>
+  <si>
+    <t>2014-06-19</t>
+  </si>
+  <si>
+    <t>2016-12-23</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>2016-11-10</t>
+  </si>
+  <si>
+    <t>2016-09-02</t>
+  </si>
+  <si>
+    <t>2017-09-05</t>
+  </si>
+  <si>
+    <t>2014-08-05</t>
+  </si>
+  <si>
+    <t>2015-09-20</t>
+  </si>
+  <si>
+    <t>2017-01-15</t>
+  </si>
+  <si>
+    <t>2015-05-05</t>
+  </si>
+  <si>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>2015-06-26</t>
+  </si>
+  <si>
+    <t>2015-01-04</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2011-12-08</t>
+  </si>
+  <si>
+    <t>2004-09-17</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2014-11-15</t>
+  </si>
+  <si>
+    <t>2013-09-12</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>2014-01-23</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>2014-10-27</t>
+  </si>
+  <si>
+    <t>2015-04-13</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
+    <t>2015-02-12</t>
+  </si>
+  <si>
+    <t>2014-07-22</t>
+  </si>
+  <si>
+    <t>2014-10-30</t>
+  </si>
+  <si>
+    <t>2014-09-04</t>
+  </si>
+  <si>
+    <t>2014-09-05</t>
+  </si>
+  <si>
+    <t>2014-09-03</t>
+  </si>
+  <si>
+    <t>2014-09-01</t>
+  </si>
+  <si>
+    <t>2014-11-19</t>
+  </si>
+  <si>
+    <t>2014-07-17</t>
+  </si>
+  <si>
+    <t>2014-11-20</t>
+  </si>
+  <si>
+    <t>2014-09-09</t>
+  </si>
+  <si>
+    <t>2014-09-18</t>
+  </si>
+  <si>
+    <t>2014-09-06</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-02-26</t>
+  </si>
+  <si>
+    <t>2016-06-07</t>
+  </si>
+  <si>
+    <t>2014-06-25</t>
+  </si>
+  <si>
+    <t>2014-09-25</t>
+  </si>
+  <si>
+    <t>2012-12-13</t>
+  </si>
+  <si>
+    <t>2013-03-11</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-11-21</t>
+  </si>
+  <si>
+    <t>2015-11-10</t>
+  </si>
+  <si>
+    <t>2013-10-12</t>
+  </si>
+  <si>
+    <t>2013-11-15</t>
+  </si>
+  <si>
+    <t>2015-05-20</t>
+  </si>
+  <si>
+    <t>2013-09-09</t>
+  </si>
+  <si>
+    <t>2015-04-28</t>
+  </si>
+  <si>
+    <t>2017-09-20</t>
+  </si>
+  <si>
+    <t>2014-11-07</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2015-05-23</t>
+  </si>
+  <si>
+    <t>2015-06-02</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
+  </si>
+  <si>
+    <t>2016-05-20</t>
+  </si>
+  <si>
+    <t>2017-05-11</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>2017-05-16</t>
+  </si>
+  <si>
+    <t>2015-12-16</t>
+  </si>
+  <si>
+    <t>2015-04-27</t>
+  </si>
+  <si>
+    <t>2016-05-10</t>
+  </si>
+  <si>
+    <t>2015-10-09</t>
+  </si>
+  <si>
+    <t>2014-11-23</t>
+  </si>
+  <si>
+    <t>2014-06-21</t>
+  </si>
+  <si>
+    <t>2014-04-29</t>
+  </si>
+  <si>
+    <t>2015-03-17</t>
+  </si>
+  <si>
+    <t>2013-04-19</t>
+  </si>
+  <si>
+    <t>2015-07-22</t>
+  </si>
+  <si>
+    <t>2016-12-28</t>
+  </si>
+  <si>
+    <t>2015-12-22</t>
+  </si>
+  <si>
+    <t>2013-04-05</t>
+  </si>
+  <si>
+    <t>2014-05-28</t>
+  </si>
+  <si>
+    <t>2013-04-11</t>
+  </si>
+  <si>
+    <t>2014-10-08</t>
+  </si>
+  <si>
+    <t>2014-05-10</t>
+  </si>
+  <si>
+    <t>2015-03-02</t>
+  </si>
+  <si>
+    <t>2014-01-27</t>
+  </si>
+  <si>
+    <t>2016-12-27</t>
+  </si>
+  <si>
+    <t>2016-06-27</t>
+  </si>
+  <si>
+    <t>2013-11-23</t>
+  </si>
+  <si>
+    <t>2016-07-06</t>
+  </si>
+  <si>
+    <t>2013-10-23</t>
+  </si>
+  <si>
+    <t>2015-10-27</t>
+  </si>
+  <si>
+    <t>2015-12-28</t>
+  </si>
+  <si>
+    <t>2014-06-04</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>2014-12-15</t>
+  </si>
+  <si>
+    <t>2013-07-30</t>
+  </si>
+  <si>
+    <t>2013-05-10</t>
+  </si>
+  <si>
+    <t>2013-10-16</t>
+  </si>
+  <si>
+    <t>2013-08-18</t>
+  </si>
+  <si>
+    <t>2013-06-09</t>
+  </si>
+  <si>
+    <t>2015-03-25</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>2017-08-15</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2013-09-10</t>
+  </si>
+  <si>
+    <t>2013-09-17</t>
+  </si>
+  <si>
+    <t>2015-08-01</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2015-08-06</t>
+  </si>
+  <si>
+    <t>2014-05-30</t>
+  </si>
+  <si>
+    <t>2013-08-13</t>
+  </si>
+  <si>
+    <t>2016-12-07</t>
+  </si>
+  <si>
+    <t>2017-09-26</t>
+  </si>
+  <si>
+    <t>2014-06-23</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2014-08-07</t>
+  </si>
+  <si>
+    <t>2014-09-24</t>
+  </si>
+  <si>
+    <t>2017-08-25</t>
+  </si>
+  <si>
+    <t>2014-09-10</t>
+  </si>
+  <si>
+    <t>2015-12-23</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>2013-03-29</t>
+  </si>
+  <si>
+    <t>2014-06-28</t>
+  </si>
+  <si>
+    <t>2013-03-08</t>
+  </si>
+  <si>
+    <t>2015-12-21</t>
+  </si>
+  <si>
+    <t>2015-06-08</t>
+  </si>
+  <si>
+    <t>2015-07-27</t>
+  </si>
+  <si>
+    <t>2015-10-19</t>
+  </si>
+  <si>
+    <t>2015-01-21</t>
+  </si>
+  <si>
+    <t>2015-10-23</t>
+  </si>
+  <si>
+    <t>2013-12-14</t>
+  </si>
+  <si>
+    <t>2014-04-18</t>
+  </si>
+  <si>
+    <t>2014-10-23</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-06-13</t>
+  </si>
+  <si>
+    <t>2015-07-30</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2015-09-29</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2013-08-09</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
+  </si>
+  <si>
+    <t>2014-08-08</t>
+  </si>
+  <si>
+    <t>2013-08-16</t>
+  </si>
+  <si>
+    <t>2010-12-27</t>
+  </si>
+  <si>
+    <t>2016-12-05</t>
+  </si>
+  <si>
+    <t>2017-09-13</t>
+  </si>
+  <si>
+    <t>2012-10-18</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>2015-06-18</t>
+  </si>
+  <si>
+    <t>2017-05-06</t>
+  </si>
+  <si>
+    <t>2017-03-14</t>
+  </si>
+  <si>
+    <t>2014-07-15</t>
+  </si>
+  <si>
+    <t>2014-03-23</t>
+  </si>
+  <si>
+    <t>2014-03-14</t>
+  </si>
+  <si>
+    <t>2013-12-25</t>
+  </si>
+  <si>
+    <t>2014-07-28</t>
+  </si>
+  <si>
+    <t>2015-03-30</t>
+  </si>
+  <si>
+    <t>2015-06-12</t>
+  </si>
+  <si>
+    <t>2015-07-17</t>
+  </si>
+  <si>
+    <t>2014-08-29</t>
+  </si>
+  <si>
+    <t>2014-08-18</t>
+  </si>
+  <si>
+    <t>2015-03-19</t>
+  </si>
+  <si>
+    <t>2015-09-23</t>
+  </si>
+  <si>
+    <t>2016-03-17</t>
+  </si>
+  <si>
+    <t>2012-07-20</t>
+  </si>
+  <si>
+    <t>2012-10-31</t>
+  </si>
+  <si>
+    <t>2012-10-24</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-25</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2015-02-10</t>
+  </si>
+  <si>
+    <t>2014-04-14</t>
+  </si>
+  <si>
+    <t>2015-05-13</t>
+  </si>
+  <si>
+    <t>2015-06-29</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-08-14</t>
+  </si>
+  <si>
+    <t>2013-09-23</t>
+  </si>
+  <si>
+    <t>2017-12-01</t>
+  </si>
+  <si>
+    <t>2014-01-02</t>
+  </si>
+  <si>
+    <t>2013-03-26</t>
+  </si>
+  <si>
+    <t>2014-07-11</t>
+  </si>
+  <si>
+    <t>2014-06-20</t>
+  </si>
+  <si>
+    <t>2014-04-11</t>
+  </si>
+  <si>
+    <t>2011-08-16</t>
+  </si>
+  <si>
+    <t>2013-11-11</t>
+  </si>
+  <si>
+    <t>2013-12-23</t>
+  </si>
+  <si>
+    <t>2016-03-10</t>
+  </si>
+  <si>
+    <t>2013-09-22</t>
+  </si>
+  <si>
+    <t>2015-04-02</t>
+  </si>
+  <si>
+    <t>2015-06-09</t>
+  </si>
+  <si>
+    <t>2013-09-27</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2014-07-05</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>2014-04-26</t>
+  </si>
+  <si>
+    <t>2014-12-05</t>
+  </si>
+  <si>
+    <t>2015-05-29</t>
+  </si>
+  <si>
+    <t>2013-08-27</t>
+  </si>
+  <si>
+    <t>2014-03-25</t>
+  </si>
+  <si>
+    <t>2014-03-05</t>
+  </si>
+  <si>
+    <t>2014-03-18</t>
+  </si>
+  <si>
+    <t>2015-05-22</t>
+  </si>
+  <si>
+    <t>2014-03-24</t>
+  </si>
+  <si>
+    <t>2014-02-27</t>
+  </si>
+  <si>
+    <t>2014-03-07</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>2014-06-06</t>
+  </si>
+  <si>
+    <t>2017-10-26</t>
+  </si>
+  <si>
+    <t>2015-03-24</t>
+  </si>
+  <si>
+    <t>2016-09-18</t>
+  </si>
+  <si>
+    <t>2017-12-14</t>
+  </si>
+  <si>
+    <t>2017-08-22</t>
+  </si>
+  <si>
+    <t>2017-07-28</t>
+  </si>
+  <si>
+    <t>2017-08-24</t>
+  </si>
+  <si>
+    <t>2016-11-08</t>
+  </si>
+  <si>
+    <t>2016-11-07</t>
+  </si>
+  <si>
+    <t>2013-02-04</t>
+  </si>
+  <si>
+    <t>2013-01-21</t>
+  </si>
+  <si>
+    <t>2013-08-14</t>
+  </si>
+  <si>
+    <t>2013-11-14</t>
+  </si>
+  <si>
+    <t>2017-05-18</t>
+  </si>
+  <si>
+    <t>2016-07-07</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-05-22</t>
+  </si>
+  <si>
+    <t>2012-09-27</t>
+  </si>
+  <si>
+    <t>2015-08-25</t>
+  </si>
+  <si>
+    <t>2015-12-04</t>
+  </si>
+  <si>
+    <t>2014-11-13</t>
+  </si>
+  <si>
+    <t>1986-12-01</t>
+  </si>
+  <si>
+    <t>2017-01-20</t>
+  </si>
+  <si>
+    <t>2017-02-12</t>
+  </si>
+  <si>
+    <t>2015-04-15</t>
+  </si>
+  <si>
+    <t>2014-07-24</t>
+  </si>
+  <si>
+    <t>2015-12-18</t>
+  </si>
+  <si>
+    <t>2013-07-04</t>
+  </si>
+  <si>
+    <t>2013-06-17</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2013-08-21</t>
+  </si>
+  <si>
+    <t>2014-07-03</t>
+  </si>
+  <si>
+    <t>2013-04-17</t>
+  </si>
+  <si>
+    <t>2014-06-09</t>
+  </si>
+  <si>
+    <t>1997-08-12</t>
+  </si>
+  <si>
+    <t>2013-10-25</t>
+  </si>
+  <si>
+    <t>2013-01-22</t>
+  </si>
+  <si>
+    <t>2013-05-03</t>
+  </si>
+  <si>
+    <t>2016-07-08</t>
+  </si>
+  <si>
+    <t>2016-09-29</t>
+  </si>
+  <si>
+    <t>2015-11-20</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2017-02-01</t>
+  </si>
+  <si>
+    <t>2015-12-15</t>
+  </si>
+  <si>
+    <t>2016-01-26</t>
+  </si>
+  <si>
+    <t>2013-09-18</t>
+  </si>
+  <si>
+    <t>2013-05-15</t>
+  </si>
+  <si>
+    <t>2014-01-15</t>
+  </si>
+  <si>
+    <t>2015-06-10</t>
+  </si>
+  <si>
+    <t>2014-04-23</t>
+  </si>
+  <si>
+    <t>2016-07-05</t>
+  </si>
+  <si>
+    <t>2014-01-29</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-12-22</t>
+  </si>
+  <si>
+    <t>2017-01-25</t>
+  </si>
+  <si>
+    <t>2017-12-13</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2017-05-03</t>
+  </si>
+  <si>
+    <t>2017-09-28</t>
+  </si>
+  <si>
+    <t>2016-05-17</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>2014-09-23</t>
+  </si>
+  <si>
+    <t>2013-06-27</t>
+  </si>
+  <si>
+    <t>2014-01-28</t>
+  </si>
+  <si>
+    <t>2013-10-09</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2014-05-22</t>
+  </si>
+  <si>
+    <t>2014-04-25</t>
+  </si>
+  <si>
+    <t>2017-07-27</t>
+  </si>
+  <si>
+    <t>2013-02-23</t>
+  </si>
+  <si>
+    <t>2014-07-04</t>
+  </si>
+  <si>
+    <t>2014-07-10</t>
+  </si>
+  <si>
+    <t>2015-07-15</t>
+  </si>
+  <si>
+    <t>2016-01-19</t>
+  </si>
+  <si>
+    <t>2017-02-15</t>
+  </si>
+  <si>
+    <t>2013-04-08</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2014-08-19</t>
+  </si>
+  <si>
+    <t>2015-12-17</t>
+  </si>
+  <si>
+    <t>2015-07-14</t>
+  </si>
+  <si>
+    <t>2015-08-14</t>
+  </si>
+  <si>
+    <t>2015-09-17</t>
+  </si>
+  <si>
+    <t>2013-12-16</t>
+  </si>
+  <si>
+    <t>2014-08-22</t>
+  </si>
+  <si>
+    <t>2014-03-17</t>
+  </si>
+  <si>
+    <t>2017-11-23</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2017-05-12</t>
+  </si>
+  <si>
+    <t>2016-06-29</t>
+  </si>
+  <si>
+    <t>2016-09-13</t>
+  </si>
+  <si>
+    <t>2016-06-23</t>
+  </si>
+  <si>
+    <t>2015-09-24</t>
+  </si>
+  <si>
+    <t>2015-05-07</t>
+  </si>
+  <si>
+    <t>2014-11-14</t>
+  </si>
+  <si>
+    <t>2013-11-20</t>
+  </si>
+  <si>
+    <t>2014-08-13</t>
+  </si>
+  <si>
+    <t>2017-12-21</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-10-24</t>
+  </si>
+  <si>
+    <t>2016-12-09</t>
+  </si>
+  <si>
+    <t>2013-05-20</t>
+  </si>
+  <si>
+    <t>2013-02-06</t>
+  </si>
+  <si>
+    <t>2015-11-11</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>2013-10-15</t>
+  </si>
+  <si>
+    <t>2014-12-27</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2014-08-12</t>
+  </si>
+  <si>
+    <t>2015-07-20</t>
+  </si>
+  <si>
+    <t>2013-12-28</t>
+  </si>
+  <si>
+    <t>2013-10-29</t>
+  </si>
+  <si>
+    <t>2013-08-23</t>
+  </si>
+  <si>
+    <t>2014-05-12</t>
+  </si>
+  <si>
+    <t>2014-09-19</t>
+  </si>
+  <si>
+    <t>2017-09-27</t>
+  </si>
+  <si>
+    <t>2009-06-01</t>
+  </si>
+  <si>
+    <t>2016-11-23</t>
+  </si>
+  <si>
+    <t>2017-11-24</t>
+  </si>
+  <si>
+    <t>2016-05-12</t>
+  </si>
+  <si>
+    <t>2016-08-18</t>
+  </si>
+  <si>
+    <t>2013-01-11</t>
+  </si>
+  <si>
+    <t>2015-04-19</t>
+  </si>
+  <si>
+    <t>2015-05-04</t>
+  </si>
+  <si>
+    <t>2015-04-23</t>
+  </si>
+  <si>
+    <t>2014-11-25</t>
+  </si>
+  <si>
+    <t>2014-02-10</t>
+  </si>
+  <si>
+    <t>2018-02-08</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2013-11-06</t>
+  </si>
+  <si>
+    <t>2016-07-26</t>
+  </si>
+  <si>
+    <t>2014-03-20</t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>2018-02-09</t>
+  </si>
+  <si>
     <t>1900-01-01</t>
-  </si>
-  <si>
-    <t>2014-05-27</t>
-  </si>
-  <si>
-    <t>2017-03-27</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
-  </si>
-  <si>
-    <t>2014-06-19</t>
-  </si>
-  <si>
-    <t>2016-12-23</t>
-  </si>
-  <si>
-    <t>2013-12-30</t>
-  </si>
-  <si>
-    <t>2016-11-10</t>
-  </si>
-  <si>
-    <t>2016-09-02</t>
-  </si>
-  <si>
-    <t>2017-09-05</t>
-  </si>
-  <si>
-    <t>2014-08-05</t>
-  </si>
-  <si>
-    <t>2015-09-20</t>
-  </si>
-  <si>
-    <t>2017-01-15</t>
-  </si>
-  <si>
-    <t>2015-05-05</t>
-  </si>
-  <si>
-    <t>2017-04-11</t>
-  </si>
-  <si>
-    <t>2015-06-26</t>
-  </si>
-  <si>
-    <t>2015-01-04</t>
-  </si>
-  <si>
-    <t>2015-11-30</t>
-  </si>
-  <si>
-    <t>2011-12-08</t>
-  </si>
-  <si>
-    <t>2004-09-17</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>2014-11-15</t>
-  </si>
-  <si>
-    <t>2013-09-12</t>
-  </si>
-  <si>
-    <t>2017-05-05</t>
-  </si>
-  <si>
-    <t>2014-01-23</t>
-  </si>
-  <si>
-    <t>2016-07-25</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>2014-10-27</t>
-  </si>
-  <si>
-    <t>2015-04-13</t>
-  </si>
-  <si>
-    <t>2015-03-31</t>
-  </si>
-  <si>
-    <t>2015-03-18</t>
-  </si>
-  <si>
-    <t>2015-04-01</t>
-  </si>
-  <si>
-    <t>2015-02-12</t>
-  </si>
-  <si>
-    <t>2014-07-22</t>
-  </si>
-  <si>
-    <t>2014-10-30</t>
-  </si>
-  <si>
-    <t>2014-09-04</t>
-  </si>
-  <si>
-    <t>2014-09-05</t>
-  </si>
-  <si>
-    <t>2014-09-03</t>
-  </si>
-  <si>
-    <t>2014-09-01</t>
-  </si>
-  <si>
-    <t>2014-11-19</t>
-  </si>
-  <si>
-    <t>2014-07-17</t>
-  </si>
-  <si>
-    <t>2014-11-20</t>
-  </si>
-  <si>
-    <t>2014-09-09</t>
-  </si>
-  <si>
-    <t>2014-09-18</t>
-  </si>
-  <si>
-    <t>2014-09-06</t>
-  </si>
-  <si>
-    <t>2015-02-28</t>
-  </si>
-  <si>
-    <t>2014-02-26</t>
-  </si>
-  <si>
-    <t>2016-06-07</t>
-  </si>
-  <si>
-    <t>2014-06-25</t>
-  </si>
-  <si>
-    <t>2014-09-25</t>
-  </si>
-  <si>
-    <t>2012-12-13</t>
-  </si>
-  <si>
-    <t>2013-03-11</t>
-  </si>
-  <si>
-    <t>2014-08-31</t>
-  </si>
-  <si>
-    <t>2014-11-21</t>
-  </si>
-  <si>
-    <t>2015-11-10</t>
-  </si>
-  <si>
-    <t>2013-10-12</t>
-  </si>
-  <si>
-    <t>2013-11-15</t>
-  </si>
-  <si>
-    <t>2015-05-20</t>
-  </si>
-  <si>
-    <t>2013-09-09</t>
-  </si>
-  <si>
-    <t>2015-04-28</t>
-  </si>
-  <si>
-    <t>2017-09-20</t>
-  </si>
-  <si>
-    <t>2014-11-07</t>
-  </si>
-  <si>
-    <t>2014-06-30</t>
-  </si>
-  <si>
-    <t>2015-05-23</t>
-  </si>
-  <si>
-    <t>2015-06-02</t>
-  </si>
-  <si>
-    <t>2016-06-01</t>
-  </si>
-  <si>
-    <t>2016-05-20</t>
-  </si>
-  <si>
-    <t>2017-05-11</t>
-  </si>
-  <si>
-    <t>2017-11-08</t>
-  </si>
-  <si>
-    <t>2017-05-25</t>
-  </si>
-  <si>
-    <t>2017-05-16</t>
-  </si>
-  <si>
-    <t>2015-12-16</t>
-  </si>
-  <si>
-    <t>2015-04-27</t>
-  </si>
-  <si>
-    <t>2016-05-10</t>
-  </si>
-  <si>
-    <t>2015-10-09</t>
-  </si>
-  <si>
-    <t>2014-11-23</t>
-  </si>
-  <si>
-    <t>2014-06-21</t>
-  </si>
-  <si>
-    <t>2014-04-29</t>
-  </si>
-  <si>
-    <t>2015-03-17</t>
-  </si>
-  <si>
-    <t>2013-04-19</t>
-  </si>
-  <si>
-    <t>2015-07-22</t>
-  </si>
-  <si>
-    <t>2016-12-28</t>
-  </si>
-  <si>
-    <t>2015-12-22</t>
-  </si>
-  <si>
-    <t>2013-04-05</t>
-  </si>
-  <si>
-    <t>2014-05-28</t>
-  </si>
-  <si>
-    <t>2013-04-11</t>
-  </si>
-  <si>
-    <t>2014-10-08</t>
-  </si>
-  <si>
-    <t>2014-05-10</t>
-  </si>
-  <si>
-    <t>2015-03-02</t>
-  </si>
-  <si>
-    <t>2014-01-27</t>
-  </si>
-  <si>
-    <t>2016-12-27</t>
-  </si>
-  <si>
-    <t>2016-06-27</t>
-  </si>
-  <si>
-    <t>2013-11-23</t>
-  </si>
-  <si>
-    <t>2016-07-06</t>
-  </si>
-  <si>
-    <t>2013-10-23</t>
-  </si>
-  <si>
-    <t>2015-10-27</t>
-  </si>
-  <si>
-    <t>2015-12-28</t>
-  </si>
-  <si>
-    <t>2014-06-04</t>
-  </si>
-  <si>
-    <t>2015-06-30</t>
-  </si>
-  <si>
-    <t>2017-11-01</t>
-  </si>
-  <si>
-    <t>2014-12-15</t>
-  </si>
-  <si>
-    <t>2013-07-30</t>
-  </si>
-  <si>
-    <t>2013-05-10</t>
-  </si>
-  <si>
-    <t>2013-10-16</t>
-  </si>
-  <si>
-    <t>2013-08-18</t>
-  </si>
-  <si>
-    <t>2013-06-09</t>
-  </si>
-  <si>
-    <t>2015-03-25</t>
-  </si>
-  <si>
-    <t>2017-10-10</t>
-  </si>
-  <si>
-    <t>2017-08-15</t>
-  </si>
-  <si>
-    <t>2017-03-13</t>
-  </si>
-  <si>
-    <t>2013-09-10</t>
-  </si>
-  <si>
-    <t>2013-09-17</t>
-  </si>
-  <si>
-    <t>2015-08-01</t>
-  </si>
-  <si>
-    <t>2014-05-31</t>
-  </si>
-  <si>
-    <t>2014-07-31</t>
-  </si>
-  <si>
-    <t>2015-08-06</t>
-  </si>
-  <si>
-    <t>2014-05-30</t>
-  </si>
-  <si>
-    <t>2013-08-13</t>
-  </si>
-  <si>
-    <t>2016-12-07</t>
-  </si>
-  <si>
-    <t>2017-09-26</t>
-  </si>
-  <si>
-    <t>2014-06-23</t>
-  </si>
-  <si>
-    <t>2017-11-06</t>
-  </si>
-  <si>
-    <t>2014-08-07</t>
-  </si>
-  <si>
-    <t>2014-09-24</t>
-  </si>
-  <si>
-    <t>2017-08-25</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2015-12-23</t>
-  </si>
-  <si>
-    <t>2016-08-16</t>
-  </si>
-  <si>
-    <t>2013-03-29</t>
-  </si>
-  <si>
-    <t>2014-06-28</t>
-  </si>
-  <si>
-    <t>2013-03-08</t>
-  </si>
-  <si>
-    <t>2015-12-21</t>
-  </si>
-  <si>
-    <t>2015-06-08</t>
-  </si>
-  <si>
-    <t>2015-07-27</t>
-  </si>
-  <si>
-    <t>2015-10-19</t>
-  </si>
-  <si>
-    <t>2015-01-21</t>
-  </si>
-  <si>
-    <t>2015-10-23</t>
-  </si>
-  <si>
-    <t>2013-12-14</t>
-  </si>
-  <si>
-    <t>2014-04-18</t>
-  </si>
-  <si>
-    <t>2014-10-23</t>
-  </si>
-  <si>
-    <t>2017-07-17</t>
-  </si>
-  <si>
-    <t>2017-06-13</t>
-  </si>
-  <si>
-    <t>2015-07-30</t>
-  </si>
-  <si>
-    <t>2015-07-31</t>
-  </si>
-  <si>
-    <t>2014-11-30</t>
-  </si>
-  <si>
-    <t>2014-01-31</t>
-  </si>
-  <si>
-    <t>2015-09-29</t>
-  </si>
-  <si>
-    <t>2014-09-30</t>
-  </si>
-  <si>
-    <t>2013-08-09</t>
-  </si>
-  <si>
-    <t>2015-09-01</t>
-  </si>
-  <si>
-    <t>2014-08-08</t>
-  </si>
-  <si>
-    <t>2013-08-16</t>
-  </si>
-  <si>
-    <t>2010-12-27</t>
-  </si>
-  <si>
-    <t>2016-12-05</t>
-  </si>
-  <si>
-    <t>2017-09-13</t>
-  </si>
-  <si>
-    <t>2012-10-18</t>
-  </si>
-  <si>
-    <t>2015-06-01</t>
-  </si>
-  <si>
-    <t>2015-06-18</t>
-  </si>
-  <si>
-    <t>2017-05-06</t>
-  </si>
-  <si>
-    <t>2017-03-14</t>
-  </si>
-  <si>
-    <t>2014-07-15</t>
-  </si>
-  <si>
-    <t>2014-03-23</t>
-  </si>
-  <si>
-    <t>2014-03-14</t>
-  </si>
-  <si>
-    <t>2013-12-25</t>
-  </si>
-  <si>
-    <t>2014-07-28</t>
-  </si>
-  <si>
-    <t>2015-03-30</t>
-  </si>
-  <si>
-    <t>2015-06-12</t>
-  </si>
-  <si>
-    <t>2015-07-17</t>
-  </si>
-  <si>
-    <t>2014-08-29</t>
-  </si>
-  <si>
-    <t>2014-08-18</t>
-  </si>
-  <si>
-    <t>2015-03-19</t>
-  </si>
-  <si>
-    <t>2015-09-23</t>
-  </si>
-  <si>
-    <t>2016-03-17</t>
-  </si>
-  <si>
-    <t>2012-07-20</t>
-  </si>
-  <si>
-    <t>2012-10-31</t>
-  </si>
-  <si>
-    <t>2012-10-24</t>
-  </si>
-  <si>
-    <t>2017-10-31</t>
-  </si>
-  <si>
-    <t>2014-07-25</t>
-  </si>
-  <si>
-    <t>2017-07-31</t>
-  </si>
-  <si>
-    <t>2015-02-10</t>
-  </si>
-  <si>
-    <t>2014-04-14</t>
-  </si>
-  <si>
-    <t>2015-05-13</t>
-  </si>
-  <si>
-    <t>2015-06-29</t>
-  </si>
-  <si>
-    <t>2017-06-26</t>
-  </si>
-  <si>
-    <t>2017-08-14</t>
-  </si>
-  <si>
-    <t>2013-09-23</t>
-  </si>
-  <si>
-    <t>2017-12-01</t>
-  </si>
-  <si>
-    <t>2014-01-02</t>
-  </si>
-  <si>
-    <t>2013-03-26</t>
-  </si>
-  <si>
-    <t>2014-07-11</t>
-  </si>
-  <si>
-    <t>2014-06-20</t>
-  </si>
-  <si>
-    <t>2014-04-11</t>
-  </si>
-  <si>
-    <t>2011-08-16</t>
-  </si>
-  <si>
-    <t>2013-11-11</t>
-  </si>
-  <si>
-    <t>2013-12-23</t>
-  </si>
-  <si>
-    <t>2016-03-10</t>
-  </si>
-  <si>
-    <t>2013-09-22</t>
-  </si>
-  <si>
-    <t>2015-04-02</t>
-  </si>
-  <si>
-    <t>2015-06-09</t>
-  </si>
-  <si>
-    <t>2013-09-27</t>
-  </si>
-  <si>
-    <t>2017-09-11</t>
-  </si>
-  <si>
-    <t>2014-07-05</t>
-  </si>
-  <si>
-    <t>2013-12-26</t>
-  </si>
-  <si>
-    <t>2014-04-26</t>
-  </si>
-  <si>
-    <t>2014-12-05</t>
-  </si>
-  <si>
-    <t>2015-05-29</t>
-  </si>
-  <si>
-    <t>2013-08-27</t>
-  </si>
-  <si>
-    <t>2014-03-25</t>
-  </si>
-  <si>
-    <t>2014-03-05</t>
-  </si>
-  <si>
-    <t>2014-03-18</t>
-  </si>
-  <si>
-    <t>2015-05-22</t>
-  </si>
-  <si>
-    <t>2014-03-24</t>
-  </si>
-  <si>
-    <t>2014-02-27</t>
-  </si>
-  <si>
-    <t>2014-03-07</t>
-  </si>
-  <si>
-    <t>2017-10-30</t>
-  </si>
-  <si>
-    <t>2014-06-06</t>
-  </si>
-  <si>
-    <t>2017-10-26</t>
-  </si>
-  <si>
-    <t>2015-03-24</t>
-  </si>
-  <si>
-    <t>2016-09-18</t>
-  </si>
-  <si>
-    <t>2017-12-14</t>
-  </si>
-  <si>
-    <t>2017-08-22</t>
-  </si>
-  <si>
-    <t>2017-07-28</t>
-  </si>
-  <si>
-    <t>2017-08-24</t>
-  </si>
-  <si>
-    <t>2016-11-08</t>
-  </si>
-  <si>
-    <t>2016-11-07</t>
-  </si>
-  <si>
-    <t>2013-02-04</t>
-  </si>
-  <si>
-    <t>2013-01-21</t>
-  </si>
-  <si>
-    <t>2013-08-14</t>
-  </si>
-  <si>
-    <t>2013-11-14</t>
-  </si>
-  <si>
-    <t>2017-05-18</t>
-  </si>
-  <si>
-    <t>2016-07-07</t>
-  </si>
-  <si>
-    <t>2016-05-23</t>
-  </si>
-  <si>
-    <t>2017-02-16</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>2016-05-22</t>
-  </si>
-  <si>
-    <t>2012-09-27</t>
-  </si>
-  <si>
-    <t>2015-08-25</t>
-  </si>
-  <si>
-    <t>2015-12-04</t>
-  </si>
-  <si>
-    <t>2014-11-13</t>
-  </si>
-  <si>
-    <t>1986-12-01</t>
-  </si>
-  <si>
-    <t>2017-01-20</t>
-  </si>
-  <si>
-    <t>2017-02-12</t>
-  </si>
-  <si>
-    <t>2015-04-15</t>
-  </si>
-  <si>
-    <t>2014-07-24</t>
-  </si>
-  <si>
-    <t>2015-12-18</t>
-  </si>
-  <si>
-    <t>2013-07-04</t>
-  </si>
-  <si>
-    <t>2013-06-17</t>
-  </si>
-  <si>
-    <t>2017-05-31</t>
-  </si>
-  <si>
-    <t>2013-08-21</t>
-  </si>
-  <si>
-    <t>2014-07-03</t>
-  </si>
-  <si>
-    <t>2013-04-17</t>
-  </si>
-  <si>
-    <t>2014-06-09</t>
-  </si>
-  <si>
-    <t>1997-08-12</t>
-  </si>
-  <si>
-    <t>2013-10-25</t>
-  </si>
-  <si>
-    <t>2013-01-22</t>
-  </si>
-  <si>
-    <t>2013-05-03</t>
-  </si>
-  <si>
-    <t>2016-07-08</t>
-  </si>
-  <si>
-    <t>2016-09-29</t>
-  </si>
-  <si>
-    <t>2015-11-20</t>
-  </si>
-  <si>
-    <t>2016-02-01</t>
-  </si>
-  <si>
-    <t>2017-02-01</t>
-  </si>
-  <si>
-    <t>2015-12-15</t>
-  </si>
-  <si>
-    <t>2016-01-26</t>
-  </si>
-  <si>
-    <t>2013-09-18</t>
-  </si>
-  <si>
-    <t>2013-05-15</t>
-  </si>
-  <si>
-    <t>2014-01-15</t>
-  </si>
-  <si>
-    <t>2015-06-10</t>
-  </si>
-  <si>
-    <t>2014-04-23</t>
-  </si>
-  <si>
-    <t>2016-07-05</t>
-  </si>
-  <si>
-    <t>2014-01-29</t>
-  </si>
-  <si>
-    <t>2016-01-25</t>
-  </si>
-  <si>
-    <t>2016-12-22</t>
-  </si>
-  <si>
-    <t>2017-01-25</t>
-  </si>
-  <si>
-    <t>2017-12-13</t>
-  </si>
-  <si>
-    <t>2016-01-27</t>
-  </si>
-  <si>
-    <t>2017-05-03</t>
-  </si>
-  <si>
-    <t>2017-09-28</t>
-  </si>
-  <si>
-    <t>2016-05-17</t>
-  </si>
-  <si>
-    <t>2016-12-12</t>
-  </si>
-  <si>
-    <t>2014-09-23</t>
-  </si>
-  <si>
-    <t>2013-06-27</t>
-  </si>
-  <si>
-    <t>2014-01-28</t>
-  </si>
-  <si>
-    <t>2013-10-09</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2014-05-22</t>
-  </si>
-  <si>
-    <t>2014-04-25</t>
-  </si>
-  <si>
-    <t>2017-07-27</t>
-  </si>
-  <si>
-    <t>2013-02-23</t>
-  </si>
-  <si>
-    <t>2014-07-04</t>
-  </si>
-  <si>
-    <t>2014-07-10</t>
-  </si>
-  <si>
-    <t>2015-07-15</t>
-  </si>
-  <si>
-    <t>2016-01-19</t>
-  </si>
-  <si>
-    <t>2017-02-15</t>
-  </si>
-  <si>
-    <t>2013-04-08</t>
-  </si>
-  <si>
-    <t>2018-05-14</t>
-  </si>
-  <si>
-    <t>2014-08-19</t>
-  </si>
-  <si>
-    <t>2015-12-17</t>
-  </si>
-  <si>
-    <t>2015-07-14</t>
-  </si>
-  <si>
-    <t>2015-08-14</t>
-  </si>
-  <si>
-    <t>2015-09-17</t>
-  </si>
-  <si>
-    <t>2013-12-16</t>
-  </si>
-  <si>
-    <t>2014-08-22</t>
-  </si>
-  <si>
-    <t>2014-03-17</t>
-  </si>
-  <si>
-    <t>2017-11-23</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2017-05-12</t>
-  </si>
-  <si>
-    <t>2016-06-29</t>
-  </si>
-  <si>
-    <t>2016-09-13</t>
-  </si>
-  <si>
-    <t>2016-06-23</t>
-  </si>
-  <si>
-    <t>2015-09-24</t>
-  </si>
-  <si>
-    <t>2015-05-07</t>
-  </si>
-  <si>
-    <t>2014-11-14</t>
-  </si>
-  <si>
-    <t>2013-11-20</t>
-  </si>
-  <si>
-    <t>2014-08-13</t>
-  </si>
-  <si>
-    <t>2017-12-21</t>
-  </si>
-  <si>
-    <t>2013-07-31</t>
-  </si>
-  <si>
-    <t>2013-10-24</t>
-  </si>
-  <si>
-    <t>2016-12-09</t>
-  </si>
-  <si>
-    <t>2013-05-20</t>
-  </si>
-  <si>
-    <t>2013-02-06</t>
-  </si>
-  <si>
-    <t>2015-11-11</t>
-  </si>
-  <si>
-    <t>2016-04-27</t>
-  </si>
-  <si>
-    <t>2016-05-31</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>2013-10-15</t>
-  </si>
-  <si>
-    <t>2014-12-27</t>
-  </si>
-  <si>
-    <t>2015-08-31</t>
-  </si>
-  <si>
-    <t>2014-08-12</t>
-  </si>
-  <si>
-    <t>2015-07-20</t>
-  </si>
-  <si>
-    <t>2013-12-28</t>
-  </si>
-  <si>
-    <t>2013-10-29</t>
-  </si>
-  <si>
-    <t>2013-08-23</t>
-  </si>
-  <si>
-    <t>2014-05-12</t>
-  </si>
-  <si>
-    <t>2014-09-19</t>
-  </si>
-  <si>
-    <t>2017-09-27</t>
-  </si>
-  <si>
-    <t>2009-06-01</t>
-  </si>
-  <si>
-    <t>2016-11-23</t>
-  </si>
-  <si>
-    <t>2017-11-24</t>
-  </si>
-  <si>
-    <t>2016-05-12</t>
-  </si>
-  <si>
-    <t>2016-08-18</t>
-  </si>
-  <si>
-    <t>2013-01-11</t>
-  </si>
-  <si>
-    <t>2015-04-19</t>
-  </si>
-  <si>
-    <t>2015-05-04</t>
-  </si>
-  <si>
-    <t>2015-04-23</t>
-  </si>
-  <si>
-    <t>2014-11-25</t>
-  </si>
-  <si>
-    <t>2014-02-10</t>
-  </si>
-  <si>
-    <t>2018-02-08</t>
-  </si>
-  <si>
-    <t>2017-08-21</t>
-  </si>
-  <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
-    <t>2013-11-06</t>
-  </si>
-  <si>
-    <t>2016-07-26</t>
-  </si>
-  <si>
-    <t>2014-03-20</t>
-  </si>
-  <si>
-    <t>2017-06-20</t>
-  </si>
-  <si>
-    <t>2018-02-09</t>
   </si>
   <si>
     <t>2015-11-27</t>
@@ -3562,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -44379,7 +44382,7 @@
         <v>322</v>
       </c>
       <c r="E2444">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2445" spans="1:5">
@@ -44396,7 +44399,7 @@
         <v>322</v>
       </c>
       <c r="E2445">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2446" spans="1:5">
@@ -44413,7 +44416,7 @@
         <v>322</v>
       </c>
       <c r="E2446">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2447" spans="1:5">
@@ -44430,7 +44433,7 @@
         <v>429</v>
       </c>
       <c r="E2447">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2448" spans="1:5">
@@ -44447,7 +44450,7 @@
         <v>429</v>
       </c>
       <c r="E2448">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2449" spans="1:5">
@@ -50156,7 +50159,7 @@
         <v>0.4871</v>
       </c>
       <c r="D2784" t="s">
-        <v>261</v>
+        <v>615</v>
       </c>
       <c r="E2784">
         <v>2014</v>
@@ -50173,7 +50176,7 @@
         <v>0.2505</v>
       </c>
       <c r="D2785" t="s">
-        <v>261</v>
+        <v>615</v>
       </c>
       <c r="E2785">
         <v>2014</v>
@@ -50190,7 +50193,7 @@
         <v>19.84</v>
       </c>
       <c r="D2786" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E2786">
         <v>2015</v>
@@ -50207,7 +50210,7 @@
         <v>80.16</v>
       </c>
       <c r="D2787" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E2787">
         <v>2015</v>
@@ -50224,7 +50227,7 @@
         <v>0.1844</v>
       </c>
       <c r="D2788" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E2788">
         <v>2014</v>
@@ -50241,7 +50244,7 @@
         <v>0.8156</v>
       </c>
       <c r="D2789" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E2789">
         <v>2014</v>
@@ -50275,7 +50278,7 @@
         <v>0.68</v>
       </c>
       <c r="D2791" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2791">
         <v>2013</v>
@@ -50292,7 +50295,7 @@
         <v>20.48</v>
       </c>
       <c r="D2792" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2792">
         <v>2013</v>
@@ -50309,7 +50312,7 @@
         <v>45.74</v>
       </c>
       <c r="D2793" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2793">
         <v>2013</v>
@@ -50326,7 +50329,7 @@
         <v>15.2</v>
       </c>
       <c r="D2794" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2794">
         <v>2013</v>
@@ -50343,7 +50346,7 @@
         <v>17.25</v>
       </c>
       <c r="D2795" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2795">
         <v>2013</v>
@@ -50360,7 +50363,7 @@
         <v>0.64</v>
       </c>
       <c r="D2796" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2796">
         <v>2013</v>
@@ -50649,7 +50652,7 @@
         <v>0</v>
       </c>
       <c r="D2813" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2813">
         <v>2014</v>
@@ -50666,7 +50669,7 @@
         <v>2.9</v>
       </c>
       <c r="D2814" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2814">
         <v>2014</v>
@@ -50683,7 +50686,7 @@
         <v>5.81</v>
       </c>
       <c r="D2815" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2815">
         <v>2014</v>
@@ -50700,7 +50703,7 @@
         <v>0</v>
       </c>
       <c r="D2816" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2816">
         <v>2014</v>
@@ -50717,7 +50720,7 @@
         <v>19.58</v>
       </c>
       <c r="D2817" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2817">
         <v>2014</v>
@@ -50734,7 +50737,7 @@
         <v>2.6</v>
       </c>
       <c r="D2818" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2818">
         <v>2014</v>
@@ -50751,7 +50754,7 @@
         <v>1.45</v>
       </c>
       <c r="D2819" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2819">
         <v>2014</v>
@@ -50768,7 +50771,7 @@
         <v>23.52</v>
       </c>
       <c r="D2820" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2820">
         <v>2014</v>
@@ -50785,7 +50788,7 @@
         <v>21.36</v>
       </c>
       <c r="D2821" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2821">
         <v>2014</v>
@@ -50802,7 +50805,7 @@
         <v>3.12</v>
       </c>
       <c r="D2822" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2822">
         <v>2014</v>
@@ -50819,7 +50822,7 @@
         <v>13.98</v>
       </c>
       <c r="D2823" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2823">
         <v>2014</v>
@@ -50836,7 +50839,7 @@
         <v>2.78</v>
       </c>
       <c r="D2824" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2824">
         <v>2014</v>
@@ -51261,7 +51264,7 @@
         <v>84.91</v>
       </c>
       <c r="D2849" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E2849">
         <v>2015</v>
@@ -51278,7 +51281,7 @@
         <v>15.09</v>
       </c>
       <c r="D2850" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E2850">
         <v>2015</v>
@@ -51295,7 +51298,7 @@
         <v>86.25</v>
       </c>
       <c r="D2851" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E2851">
         <v>2016</v>
@@ -51312,7 +51315,7 @@
         <v>13.75</v>
       </c>
       <c r="D2852" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E2852">
         <v>2016</v>
@@ -51329,7 +51332,7 @@
         <v>27.21</v>
       </c>
       <c r="D2853" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E2853">
         <v>2017</v>
@@ -51380,7 +51383,7 @@
         <v>72.79000000000001</v>
       </c>
       <c r="D2856" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E2856">
         <v>2017</v>
@@ -51431,7 +51434,7 @@
         <v>28.18</v>
       </c>
       <c r="D2859" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E2859">
         <v>2013</v>
@@ -51448,7 +51451,7 @@
         <v>71.81999999999999</v>
       </c>
       <c r="D2860" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E2860">
         <v>2013</v>
@@ -51465,7 +51468,7 @@
         <v>72.18000000000001</v>
       </c>
       <c r="D2861" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E2861">
         <v>2014</v>
@@ -51482,7 +51485,7 @@
         <v>27.82</v>
       </c>
       <c r="D2862" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E2862">
         <v>2014</v>
@@ -51499,7 +51502,7 @@
         <v>28.18</v>
       </c>
       <c r="D2863" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E2863">
         <v>2017</v>
@@ -51516,7 +51519,7 @@
         <v>7.08</v>
       </c>
       <c r="D2864" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E2864">
         <v>2017</v>
@@ -51533,7 +51536,7 @@
         <v>14.18</v>
       </c>
       <c r="D2865" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E2865">
         <v>2017</v>
@@ -51550,7 +51553,7 @@
         <v>25.67</v>
       </c>
       <c r="D2866" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E2866">
         <v>2014</v>
@@ -51584,7 +51587,7 @@
         <v>1.67</v>
       </c>
       <c r="D2868" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2868">
         <v>2015</v>
@@ -51601,7 +51604,7 @@
         <v>0</v>
       </c>
       <c r="D2869" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2869">
         <v>2015</v>
@@ -51618,7 +51621,7 @@
         <v>0</v>
       </c>
       <c r="D2870" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2870">
         <v>2015</v>
@@ -51635,7 +51638,7 @@
         <v>11.14</v>
       </c>
       <c r="D2871" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2871">
         <v>2015</v>
@@ -51652,7 +51655,7 @@
         <v>17.52</v>
       </c>
       <c r="D2872" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2872">
         <v>2015</v>
@@ -51669,7 +51672,7 @@
         <v>12.55</v>
       </c>
       <c r="D2873" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2873">
         <v>2015</v>
@@ -51873,7 +51876,7 @@
         <v>7.64</v>
       </c>
       <c r="D2885" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E2885">
         <v>2016</v>
@@ -51941,7 +51944,7 @@
         <v>0</v>
       </c>
       <c r="D2889" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E2889">
         <v>2017</v>
@@ -51958,7 +51961,7 @@
         <v>20.68</v>
       </c>
       <c r="D2890" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E2890">
         <v>2017</v>
@@ -51975,7 +51978,7 @@
         <v>79.31999999999999</v>
       </c>
       <c r="D2891" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E2891">
         <v>2017</v>
@@ -51992,7 +51995,7 @@
         <v>0</v>
       </c>
       <c r="D2892" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E2892">
         <v>2017</v>
@@ -52060,7 +52063,7 @@
         <v>3.34</v>
       </c>
       <c r="D2896" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E2896">
         <v>2015</v>
@@ -52077,7 +52080,7 @@
         <v>0</v>
       </c>
       <c r="D2897" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E2897">
         <v>2015</v>
@@ -52094,7 +52097,7 @@
         <v>13.33</v>
       </c>
       <c r="D2898" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E2898">
         <v>2015</v>
@@ -52111,7 +52114,7 @@
         <v>3.62</v>
       </c>
       <c r="D2899" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E2899">
         <v>2015</v>
@@ -52128,7 +52131,7 @@
         <v>10.12</v>
       </c>
       <c r="D2900" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E2900">
         <v>2015</v>
@@ -52570,7 +52573,7 @@
         <v>0</v>
       </c>
       <c r="D2926" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E2926">
         <v>2016</v>
@@ -52587,7 +52590,7 @@
         <v>7.17</v>
       </c>
       <c r="D2927" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2927">
         <v>2013</v>
@@ -52604,7 +52607,7 @@
         <v>0.67</v>
       </c>
       <c r="D2928" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2928">
         <v>2013</v>
@@ -52621,7 +52624,7 @@
         <v>3.66</v>
       </c>
       <c r="D2929" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2929">
         <v>2013</v>
@@ -52638,7 +52641,7 @@
         <v>11.85</v>
       </c>
       <c r="D2930" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2930">
         <v>2013</v>
@@ -52655,7 +52658,7 @@
         <v>6.29</v>
       </c>
       <c r="D2931" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2931">
         <v>2013</v>
@@ -52672,7 +52675,7 @@
         <v>38.79</v>
       </c>
       <c r="D2932" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2932">
         <v>2013</v>
@@ -52689,7 +52692,7 @@
         <v>3.69</v>
       </c>
       <c r="D2933" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2933">
         <v>2013</v>
@@ -52706,7 +52709,7 @@
         <v>27.88</v>
       </c>
       <c r="D2934" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E2934">
         <v>2013</v>
@@ -52757,7 +52760,7 @@
         <v>87.75</v>
       </c>
       <c r="D2937" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2937">
         <v>2017</v>
@@ -52774,7 +52777,7 @@
         <v>87.75</v>
       </c>
       <c r="D2938" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2938">
         <v>2017</v>
@@ -52791,7 +52794,7 @@
         <v>12.24</v>
       </c>
       <c r="D2939" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2939">
         <v>2017</v>
@@ -52808,7 +52811,7 @@
         <v>12.25</v>
       </c>
       <c r="D2940" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2940">
         <v>2017</v>
@@ -52825,7 +52828,7 @@
         <v>12.24</v>
       </c>
       <c r="D2941" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2941">
         <v>2017</v>
@@ -52842,7 +52845,7 @@
         <v>0</v>
       </c>
       <c r="D2942" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E2942">
         <v>2017</v>
@@ -52859,7 +52862,7 @@
         <v>0</v>
       </c>
       <c r="D2943" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E2943">
         <v>2017</v>
@@ -52876,7 +52879,7 @@
         <v>87.76000000000001</v>
       </c>
       <c r="D2944" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2944">
         <v>2017</v>
@@ -52893,7 +52896,7 @@
         <v>87.76000000000001</v>
       </c>
       <c r="D2945" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2945">
         <v>2017</v>
@@ -52910,7 +52913,7 @@
         <v>12.25</v>
       </c>
       <c r="D2946" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E2946">
         <v>2017</v>
@@ -53012,7 +53015,7 @@
         <v>0</v>
       </c>
       <c r="D2952" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E2952">
         <v>2015</v>
@@ -53131,7 +53134,7 @@
         <v>46.16</v>
       </c>
       <c r="D2959" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E2959">
         <v>2014</v>
@@ -53148,7 +53151,7 @@
         <v>53.84</v>
       </c>
       <c r="D2960" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E2960">
         <v>2014</v>
@@ -53165,7 +53168,7 @@
         <v>65.33</v>
       </c>
       <c r="D2961" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E2961">
         <v>2016</v>
@@ -53182,7 +53185,7 @@
         <v>34.67</v>
       </c>
       <c r="D2962" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E2962">
         <v>2016</v>
@@ -53199,7 +53202,7 @@
         <v>0</v>
       </c>
       <c r="D2963" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E2963">
         <v>2014</v>
@@ -53233,7 +53236,7 @@
         <v>0</v>
       </c>
       <c r="D2965" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E2965">
         <v>2014</v>
@@ -53284,7 +53287,7 @@
         <v>40.23</v>
       </c>
       <c r="D2968" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E2968">
         <v>2017</v>
@@ -53369,7 +53372,7 @@
         <v>1.73</v>
       </c>
       <c r="D2973" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E2973">
         <v>2015</v>
@@ -53420,7 +53423,7 @@
         <v>43.44</v>
       </c>
       <c r="D2976" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E2976">
         <v>2015</v>
@@ -53437,7 +53440,7 @@
         <v>2.16</v>
       </c>
       <c r="D2977" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E2977">
         <v>2015</v>
@@ -53658,7 +53661,7 @@
         <v>0</v>
       </c>
       <c r="D2990" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E2990">
         <v>2015</v>
@@ -53675,7 +53678,7 @@
         <v>0</v>
       </c>
       <c r="D2991" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E2991">
         <v>2015</v>
@@ -53692,7 +53695,7 @@
         <v>38.57</v>
       </c>
       <c r="D2992" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E2992">
         <v>2015</v>
@@ -53709,7 +53712,7 @@
         <v>0</v>
       </c>
       <c r="D2993" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E2993">
         <v>2015</v>
@@ -53726,7 +53729,7 @@
         <v>0</v>
       </c>
       <c r="D2994" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E2994">
         <v>2015</v>
@@ -53743,7 +53746,7 @@
         <v>5</v>
       </c>
       <c r="D2995" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E2995">
         <v>2013</v>
@@ -53760,7 +53763,7 @@
         <v>4.62</v>
       </c>
       <c r="D2996" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E2996">
         <v>2014</v>
@@ -53777,7 +53780,7 @@
         <v>4.72</v>
       </c>
       <c r="D2997" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E2997">
         <v>2014</v>
@@ -53794,7 +53797,7 @@
         <v>5</v>
       </c>
       <c r="D2998" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E2998">
         <v>2014</v>
@@ -53828,7 +53831,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="D3000" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E3000">
         <v>2014</v>
@@ -53879,7 +53882,7 @@
         <v>1.375</v>
       </c>
       <c r="D3003" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3003">
         <v>2015</v>
@@ -53913,7 +53916,7 @@
         <v>3.125</v>
       </c>
       <c r="D3005" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3005">
         <v>2015</v>
@@ -53964,7 +53967,7 @@
         <v>4.875</v>
       </c>
       <c r="D3008" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3008">
         <v>2015</v>
@@ -53998,7 +54001,7 @@
         <v>0</v>
       </c>
       <c r="D3010" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E3010">
         <v>2015</v>
@@ -54100,7 +54103,7 @@
         <v>18.1</v>
       </c>
       <c r="D3016" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E3016">
         <v>2013</v>
@@ -54168,7 +54171,7 @@
         <v>18.1</v>
       </c>
       <c r="D3020" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E3020">
         <v>2016</v>
@@ -54236,7 +54239,7 @@
         <v>0</v>
       </c>
       <c r="D3024" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E3024">
         <v>2017</v>
@@ -54253,7 +54256,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D3025" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E3025">
         <v>2017</v>
@@ -54270,7 +54273,7 @@
         <v>15.8</v>
       </c>
       <c r="D3026" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E3026">
         <v>2017</v>
@@ -54287,7 +54290,7 @@
         <v>0</v>
       </c>
       <c r="D3027" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E3027">
         <v>2017</v>
@@ -54304,7 +54307,7 @@
         <v>35.52</v>
       </c>
       <c r="D3028" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3028">
         <v>2014</v>
@@ -54338,7 +54341,7 @@
         <v>23.27</v>
       </c>
       <c r="D3030" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E3030">
         <v>2016</v>
@@ -54457,7 +54460,7 @@
         <v>0</v>
       </c>
       <c r="D3037" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E3037">
         <v>2016</v>
@@ -54729,7 +54732,7 @@
         <v>0</v>
       </c>
       <c r="D3053" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E3053">
         <v>2013</v>
@@ -54746,7 +54749,7 @@
         <v>40.45</v>
       </c>
       <c r="D3054" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E3054">
         <v>2013</v>
@@ -54763,7 +54766,7 @@
         <v>3.96</v>
       </c>
       <c r="D3055" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E3055">
         <v>2016</v>
@@ -54780,7 +54783,7 @@
         <v>6.14</v>
       </c>
       <c r="D3056" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3056">
         <v>2014</v>
@@ -54797,7 +54800,7 @@
         <v>28.62</v>
       </c>
       <c r="D3057" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3057">
         <v>2014</v>
@@ -54814,7 +54817,7 @@
         <v>25.91</v>
       </c>
       <c r="D3058" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3058">
         <v>2014</v>
@@ -54831,7 +54834,7 @@
         <v>7.78</v>
       </c>
       <c r="D3059" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3059">
         <v>2014</v>
@@ -54848,7 +54851,7 @@
         <v>12.38</v>
       </c>
       <c r="D3060" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E3060">
         <v>2014</v>
@@ -54865,7 +54868,7 @@
         <v>15.16</v>
       </c>
       <c r="D3061" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E3061">
         <v>2014</v>
@@ -54882,7 +54885,7 @@
         <v>2.28</v>
       </c>
       <c r="D3062" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3062">
         <v>2014</v>
@@ -54899,7 +54902,7 @@
         <v>1.7</v>
       </c>
       <c r="D3063" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3063">
         <v>2014</v>
@@ -54916,7 +54919,7 @@
         <v>0.03</v>
       </c>
       <c r="D3064" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E3064">
         <v>2014</v>
@@ -55035,7 +55038,7 @@
         <v>33.94</v>
       </c>
       <c r="D3071" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E3071">
         <v>2014</v>
@@ -55052,7 +55055,7 @@
         <v>19.23</v>
       </c>
       <c r="D3072" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E3072">
         <v>2014</v>
@@ -55188,7 +55191,7 @@
         <v>39.99</v>
       </c>
       <c r="D3080" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E3080">
         <v>2015</v>
@@ -55205,7 +55208,7 @@
         <v>3.81</v>
       </c>
       <c r="D3081" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E3081">
         <v>2015</v>
@@ -55222,7 +55225,7 @@
         <v>40.03</v>
       </c>
       <c r="D3082" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E3082">
         <v>2015</v>
@@ -55239,7 +55242,7 @@
         <v>3.85</v>
       </c>
       <c r="D3083" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E3083">
         <v>2015</v>
@@ -55256,7 +55259,7 @@
         <v>20</v>
       </c>
       <c r="D3084" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E3084">
         <v>2015</v>
@@ -55273,7 +55276,7 @@
         <v>37.15</v>
       </c>
       <c r="D3085" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E3085">
         <v>2015</v>
@@ -55477,7 +55480,7 @@
         <v>7.5485</v>
       </c>
       <c r="D3097" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E3097">
         <v>2016</v>
@@ -55494,7 +55497,7 @@
         <v>0.58</v>
       </c>
       <c r="D3098" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E3098">
         <v>2014</v>
@@ -55511,7 +55514,7 @@
         <v>45.56</v>
       </c>
       <c r="D3099" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E3099">
         <v>2014</v>
@@ -55528,7 +55531,7 @@
         <v>53.86</v>
       </c>
       <c r="D3100" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E3100">
         <v>2014</v>
@@ -55562,7 +55565,7 @@
         <v>45.56</v>
       </c>
       <c r="D3102" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E3102">
         <v>2013</v>
@@ -55579,7 +55582,7 @@
         <v>0.77</v>
       </c>
       <c r="D3103" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E3103">
         <v>2013</v>
@@ -55834,7 +55837,7 @@
         <v>25.4</v>
       </c>
       <c r="D3118" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E3118">
         <v>2014</v>
@@ -55902,7 +55905,7 @@
         <v>26.42</v>
       </c>
       <c r="D3122" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E3122">
         <v>2014</v>
@@ -55919,7 +55922,7 @@
         <v>36.06</v>
       </c>
       <c r="D3123" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E3123">
         <v>2014</v>
@@ -55936,7 +55939,7 @@
         <v>13.14</v>
       </c>
       <c r="D3124" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E3124">
         <v>2014</v>
@@ -55953,7 +55956,7 @@
         <v>25.4</v>
       </c>
       <c r="D3125" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E3125">
         <v>2014</v>
@@ -55987,7 +55990,7 @@
         <v>30.04</v>
       </c>
       <c r="D3127" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E3127">
         <v>2014</v>
@@ -56038,7 +56041,7 @@
         <v>58.56</v>
       </c>
       <c r="D3130" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E3130">
         <v>2017</v>
@@ -56072,7 +56075,7 @@
         <v>22.26</v>
       </c>
       <c r="D3132" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E3132">
         <v>2017</v>
@@ -56140,7 +56143,7 @@
         <v>8.06</v>
       </c>
       <c r="D3136" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E3136">
         <v>2014</v>
@@ -56174,7 +56177,7 @@
         <v>23.47</v>
       </c>
       <c r="D3138" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3138">
         <v>2013</v>
@@ -56191,7 +56194,7 @@
         <v>0</v>
       </c>
       <c r="D3139" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3139">
         <v>2013</v>
@@ -56208,7 +56211,7 @@
         <v>0</v>
       </c>
       <c r="D3140" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3140">
         <v>2013</v>
@@ -56225,7 +56228,7 @@
         <v>0.174</v>
       </c>
       <c r="D3141" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3141">
         <v>2013</v>
@@ -56242,7 +56245,7 @@
         <v>44.849</v>
       </c>
       <c r="D3142" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3142">
         <v>2013</v>
@@ -56259,7 +56262,7 @@
         <v>13.77</v>
       </c>
       <c r="D3143" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3143">
         <v>2013</v>
@@ -56276,7 +56279,7 @@
         <v>15.221</v>
       </c>
       <c r="D3144" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3144">
         <v>2013</v>
@@ -56293,7 +56296,7 @@
         <v>0</v>
       </c>
       <c r="D3145" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3145">
         <v>2013</v>
@@ -56310,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="D3146" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E3146">
         <v>2013</v>
@@ -56497,7 +56500,7 @@
         <v>29.17</v>
       </c>
       <c r="D3157" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E3157">
         <v>2016</v>
@@ -56514,7 +56517,7 @@
         <v>10.19</v>
       </c>
       <c r="D3158" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E3158">
         <v>2016</v>
@@ -56582,7 +56585,7 @@
         <v>0</v>
       </c>
       <c r="D3162" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E3162">
         <v>2014</v>
@@ -56599,7 +56602,7 @@
         <v>1.9432</v>
       </c>
       <c r="D3163" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E3163">
         <v>2014</v>
@@ -56633,7 +56636,7 @@
         <v>0.1284</v>
       </c>
       <c r="D3165" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E3165">
         <v>2014</v>
@@ -56650,7 +56653,7 @@
         <v>0.2</v>
       </c>
       <c r="D3166" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E3166">
         <v>2014</v>
@@ -56667,7 +56670,7 @@
         <v>0</v>
       </c>
       <c r="D3167" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E3167">
         <v>2014</v>
@@ -56684,7 +56687,7 @@
         <v>10.692</v>
       </c>
       <c r="D3168" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E3168">
         <v>2014</v>
@@ -56990,7 +56993,7 @@
         <v>0</v>
       </c>
       <c r="D3186" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E3186">
         <v>2015</v>
@@ -57109,7 +57112,7 @@
         <v>14.8</v>
       </c>
       <c r="D3193" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3193">
         <v>2013</v>
@@ -57126,7 +57129,7 @@
         <v>0.21</v>
       </c>
       <c r="D3194" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E3194">
         <v>2013</v>
@@ -57143,7 +57146,7 @@
         <v>1.86</v>
       </c>
       <c r="D3195" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3195">
         <v>2013</v>
@@ -57160,7 +57163,7 @@
         <v>0.26</v>
       </c>
       <c r="D3196" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3196">
         <v>2013</v>
@@ -57177,7 +57180,7 @@
         <v>0.2</v>
       </c>
       <c r="D3197" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E3197">
         <v>2013</v>
@@ -57194,7 +57197,7 @@
         <v>5.13</v>
       </c>
       <c r="D3198" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3198">
         <v>2013</v>
@@ -57211,7 +57214,7 @@
         <v>27.1</v>
       </c>
       <c r="D3199" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3199">
         <v>2013</v>
@@ -57228,7 +57231,7 @@
         <v>0.16</v>
       </c>
       <c r="D3200" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3200">
         <v>2013</v>
@@ -57245,7 +57248,7 @@
         <v>7.5</v>
       </c>
       <c r="D3201" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3201">
         <v>2013</v>
@@ -57262,7 +57265,7 @@
         <v>1.21</v>
       </c>
       <c r="D3202" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E3202">
         <v>2013</v>
@@ -57381,7 +57384,7 @@
         <v>60.91</v>
       </c>
       <c r="D3209" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E3209">
         <v>2017</v>
@@ -57398,7 +57401,7 @@
         <v>39.09</v>
       </c>
       <c r="D3210" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E3210">
         <v>2017</v>
@@ -57415,7 +57418,7 @@
         <v>0</v>
       </c>
       <c r="D3211" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E3211">
         <v>2017</v>
@@ -57432,7 +57435,7 @@
         <v>0</v>
       </c>
       <c r="D3212" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E3212">
         <v>2017</v>
@@ -57449,7 +57452,7 @@
         <v>5.9883</v>
       </c>
       <c r="D3213" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E3213">
         <v>2013</v>
@@ -57466,7 +57469,7 @@
         <v>0</v>
       </c>
       <c r="D3214" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E3214">
         <v>2013</v>
@@ -57500,7 +57503,7 @@
         <v>0</v>
       </c>
       <c r="D3216" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E3216">
         <v>2013</v>
@@ -57517,7 +57520,7 @@
         <v>0</v>
       </c>
       <c r="D3217" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E3217">
         <v>2013</v>
@@ -57687,7 +57690,7 @@
         <v>35.67</v>
       </c>
       <c r="D3227" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E3227">
         <v>2016</v>
@@ -57704,7 +57707,7 @@
         <v>8.02</v>
       </c>
       <c r="D3228" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E3228">
         <v>2016</v>
@@ -57721,7 +57724,7 @@
         <v>5.3</v>
       </c>
       <c r="D3229" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E3229">
         <v>2016</v>
@@ -57772,7 +57775,7 @@
         <v>69.34</v>
       </c>
       <c r="D3232" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E3232">
         <v>2017</v>
@@ -57789,7 +57792,7 @@
         <v>30.66</v>
       </c>
       <c r="D3233" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E3233">
         <v>2017</v>
@@ -57806,7 +57809,7 @@
         <v>60.33</v>
       </c>
       <c r="D3234" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3234">
         <v>2017</v>
@@ -57823,7 +57826,7 @@
         <v>60.628</v>
       </c>
       <c r="D3235" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3235">
         <v>2017</v>
@@ -57840,7 +57843,7 @@
         <v>22.56</v>
       </c>
       <c r="D3236" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3236">
         <v>2017</v>
@@ -57857,7 +57860,7 @@
         <v>16.805</v>
       </c>
       <c r="D3237" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3237">
         <v>2017</v>
@@ -57874,7 +57877,7 @@
         <v>0</v>
       </c>
       <c r="D3238" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E3238">
         <v>2017</v>
@@ -57891,7 +57894,7 @@
         <v>60.628</v>
       </c>
       <c r="D3239" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3239">
         <v>2017</v>
@@ -57908,7 +57911,7 @@
         <v>17.11</v>
       </c>
       <c r="D3240" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3240">
         <v>2017</v>
@@ -57925,7 +57928,7 @@
         <v>22.56</v>
       </c>
       <c r="D3241" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3241">
         <v>2017</v>
@@ -57942,7 +57945,7 @@
         <v>22.567</v>
       </c>
       <c r="D3242" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3242">
         <v>2017</v>
@@ -57959,7 +57962,7 @@
         <v>22.567</v>
       </c>
       <c r="D3243" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3243">
         <v>2017</v>
@@ -57976,7 +57979,7 @@
         <v>60.33</v>
       </c>
       <c r="D3244" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3244">
         <v>2017</v>
@@ -57993,7 +57996,7 @@
         <v>22.567</v>
       </c>
       <c r="D3245" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3245">
         <v>2017</v>
@@ -58010,7 +58013,7 @@
         <v>16.805</v>
       </c>
       <c r="D3246" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3246">
         <v>2017</v>
@@ -58027,7 +58030,7 @@
         <v>0</v>
       </c>
       <c r="D3247" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E3247">
         <v>2017</v>
@@ -58044,7 +58047,7 @@
         <v>0</v>
       </c>
       <c r="D3248" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E3248">
         <v>2017</v>
@@ -58061,7 +58064,7 @@
         <v>22.56</v>
       </c>
       <c r="D3249" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3249">
         <v>2017</v>
@@ -58078,7 +58081,7 @@
         <v>60.33</v>
       </c>
       <c r="D3250" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3250">
         <v>2017</v>
@@ -58095,7 +58098,7 @@
         <v>60.628</v>
       </c>
       <c r="D3251" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3251">
         <v>2017</v>
@@ -58112,7 +58115,7 @@
         <v>16.805</v>
       </c>
       <c r="D3252" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3252">
         <v>2017</v>
@@ -58129,7 +58132,7 @@
         <v>17.11</v>
       </c>
       <c r="D3253" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3253">
         <v>2017</v>
@@ -58146,7 +58149,7 @@
         <v>17.11</v>
       </c>
       <c r="D3254" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3254">
         <v>2017</v>
@@ -58333,7 +58336,7 @@
         <v>4.84</v>
       </c>
       <c r="D3265" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3265">
         <v>2014</v>
@@ -58350,7 +58353,7 @@
         <v>33.28</v>
       </c>
       <c r="D3266" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3266">
         <v>2014</v>
@@ -58367,7 +58370,7 @@
         <v>4.39</v>
       </c>
       <c r="D3267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3267">
         <v>2014</v>
@@ -58384,7 +58387,7 @@
         <v>16.71</v>
       </c>
       <c r="D3268" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3268">
         <v>2014</v>
@@ -58401,7 +58404,7 @@
         <v>40.78</v>
       </c>
       <c r="D3269" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3269">
         <v>2014</v>
@@ -58418,7 +58421,7 @@
         <v>40.2</v>
       </c>
       <c r="D3270" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E3270">
         <v>2016</v>
@@ -58435,7 +58438,7 @@
         <v>1.61</v>
       </c>
       <c r="D3271" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E3271">
         <v>2016</v>
@@ -58452,7 +58455,7 @@
         <v>16.47</v>
       </c>
       <c r="D3272" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E3272">
         <v>2016</v>
@@ -58469,7 +58472,7 @@
         <v>0</v>
       </c>
       <c r="D3273" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E3273">
         <v>2016</v>
@@ -58486,7 +58489,7 @@
         <v>2.44</v>
       </c>
       <c r="D3274" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E3274">
         <v>2016</v>
@@ -58503,7 +58506,7 @@
         <v>39.28</v>
       </c>
       <c r="D3275" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E3275">
         <v>2016</v>
@@ -58520,7 +58523,7 @@
         <v>0</v>
       </c>
       <c r="D3276" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3276">
         <v>2017</v>
@@ -58537,7 +58540,7 @@
         <v>38.86</v>
       </c>
       <c r="D3277" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3277">
         <v>2017</v>
@@ -58554,7 +58557,7 @@
         <v>16.61</v>
       </c>
       <c r="D3278" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3278">
         <v>2017</v>
@@ -58571,7 +58574,7 @@
         <v>40.53</v>
       </c>
       <c r="D3279" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3279">
         <v>2017</v>
@@ -58588,7 +58591,7 @@
         <v>2.46</v>
       </c>
       <c r="D3280" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3280">
         <v>2017</v>
@@ -58605,7 +58608,7 @@
         <v>1.54</v>
       </c>
       <c r="D3281" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3281">
         <v>2017</v>
@@ -58622,7 +58625,7 @@
         <v>22.18</v>
       </c>
       <c r="D3282" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E3282">
         <v>2016</v>
@@ -58639,7 +58642,7 @@
         <v>9.41</v>
       </c>
       <c r="D3283" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E3283">
         <v>2016</v>
@@ -58656,7 +58659,7 @@
         <v>7.85</v>
       </c>
       <c r="D3284" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E3284">
         <v>2016</v>
@@ -58673,7 +58676,7 @@
         <v>9.19</v>
       </c>
       <c r="D3285" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E3285">
         <v>2016</v>
@@ -58707,7 +58710,7 @@
         <v>8.84</v>
       </c>
       <c r="D3287" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E3287">
         <v>2016</v>
@@ -58724,7 +58727,7 @@
         <v>18.28</v>
       </c>
       <c r="D3288" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E3288">
         <v>2016</v>
@@ -58741,7 +58744,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="D3289" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E3289">
         <v>2016</v>
@@ -58758,7 +58761,7 @@
         <v>18.67</v>
       </c>
       <c r="D3290" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E3290">
         <v>2016</v>
@@ -59200,7 +59203,7 @@
         <v>50</v>
       </c>
       <c r="D3316" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E3316">
         <v>2016</v>
@@ -59557,7 +59560,7 @@
         <v>3.22</v>
       </c>
       <c r="D3337" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E3337">
         <v>2016</v>
@@ -59574,7 +59577,7 @@
         <v>20.21</v>
       </c>
       <c r="D3338" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E3338">
         <v>2016</v>
@@ -59591,7 +59594,7 @@
         <v>9.19</v>
       </c>
       <c r="D3339" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E3339">
         <v>2016</v>
@@ -59608,7 +59611,7 @@
         <v>23.58</v>
       </c>
       <c r="D3340" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E3340">
         <v>2016</v>
@@ -59625,7 +59628,7 @@
         <v>6.08</v>
       </c>
       <c r="D3341" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E3341">
         <v>2016</v>
@@ -59642,7 +59645,7 @@
         <v>30.12</v>
       </c>
       <c r="D3342" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3342">
         <v>2013</v>
@@ -59659,7 +59662,7 @@
         <v>3.77</v>
       </c>
       <c r="D3343" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3343">
         <v>2013</v>
@@ -59676,7 +59679,7 @@
         <v>2.51</v>
       </c>
       <c r="D3344" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3344">
         <v>2013</v>
@@ -59693,7 +59696,7 @@
         <v>2.2</v>
       </c>
       <c r="D3345" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3345">
         <v>2013</v>
@@ -59710,7 +59713,7 @@
         <v>32.63</v>
       </c>
       <c r="D3346" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3346">
         <v>2013</v>
@@ -59727,7 +59730,7 @@
         <v>3.77</v>
       </c>
       <c r="D3347" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3347">
         <v>2014</v>
@@ -59744,7 +59747,7 @@
         <v>2.2</v>
       </c>
       <c r="D3348" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3348">
         <v>2014</v>
@@ -59761,7 +59764,7 @@
         <v>30.12</v>
       </c>
       <c r="D3349" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3349">
         <v>2014</v>
@@ -59778,7 +59781,7 @@
         <v>2.51</v>
       </c>
       <c r="D3350" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3350">
         <v>2014</v>
@@ -59795,7 +59798,7 @@
         <v>32.63</v>
       </c>
       <c r="D3351" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E3351">
         <v>2014</v>
@@ -59812,7 +59815,7 @@
         <v>16.15</v>
       </c>
       <c r="D3352" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E3352">
         <v>2016</v>
@@ -59829,7 +59832,7 @@
         <v>28.22</v>
       </c>
       <c r="D3353" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E3353">
         <v>2016</v>
@@ -59846,7 +59849,7 @@
         <v>3.75</v>
       </c>
       <c r="D3354" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E3354">
         <v>2016</v>
@@ -60016,7 +60019,7 @@
         <v>0</v>
       </c>
       <c r="D3364" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E3364">
         <v>2013</v>
@@ -60033,7 +60036,7 @@
         <v>65.41</v>
       </c>
       <c r="D3365" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E3365">
         <v>2013</v>
@@ -60050,7 +60053,7 @@
         <v>52.9</v>
       </c>
       <c r="D3366" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E3366">
         <v>2017</v>
@@ -60067,7 +60070,7 @@
         <v>47.1</v>
       </c>
       <c r="D3367" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E3367">
         <v>2017</v>
@@ -60084,7 +60087,7 @@
         <v>47.1</v>
       </c>
       <c r="D3368" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E3368">
         <v>2017</v>
@@ -60101,7 +60104,7 @@
         <v>52.9</v>
       </c>
       <c r="D3369" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E3369">
         <v>2017</v>
@@ -60203,7 +60206,7 @@
         <v>47.04</v>
       </c>
       <c r="D3375" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3375">
         <v>2014</v>
@@ -60305,7 +60308,7 @@
         <v>0</v>
       </c>
       <c r="D3381" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E3381">
         <v>2013</v>
@@ -60322,7 +60325,7 @@
         <v>0</v>
       </c>
       <c r="D3382" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E3382">
         <v>2014</v>
@@ -60339,7 +60342,7 @@
         <v>0</v>
       </c>
       <c r="D3383" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E3383">
         <v>2015</v>
@@ -60356,7 +60359,7 @@
         <v>25.01</v>
       </c>
       <c r="D3384" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E3384">
         <v>2016</v>
@@ -60373,7 +60376,7 @@
         <v>1.88</v>
       </c>
       <c r="D3385" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E3385">
         <v>2017</v>
@@ -60390,7 +60393,7 @@
         <v>75</v>
       </c>
       <c r="D3386" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E3386">
         <v>2016</v>
@@ -60407,7 +60410,7 @@
         <v>25</v>
       </c>
       <c r="D3387" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E3387">
         <v>2016</v>
@@ -60747,7 +60750,7 @@
         <v>37.59</v>
       </c>
       <c r="D3407" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E3407">
         <v>2013</v>
@@ -61121,7 +61124,7 @@
         <v>0</v>
       </c>
       <c r="D3429" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3429">
         <v>2017</v>
@@ -61138,7 +61141,7 @@
         <v>0</v>
       </c>
       <c r="D3430" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3430">
         <v>2017</v>
@@ -61155,7 +61158,7 @@
         <v>0</v>
       </c>
       <c r="D3431" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3431">
         <v>2017</v>
@@ -61172,7 +61175,7 @@
         <v>0</v>
       </c>
       <c r="D3432" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3432">
         <v>2017</v>
@@ -61189,7 +61192,7 @@
         <v>0</v>
       </c>
       <c r="D3433" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3433">
         <v>2017</v>
@@ -61206,7 +61209,7 @@
         <v>0</v>
       </c>
       <c r="D3434" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3434">
         <v>2017</v>
@@ -61223,7 +61226,7 @@
         <v>0</v>
       </c>
       <c r="D3435" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3435">
         <v>2017</v>
@@ -61240,7 +61243,7 @@
         <v>0</v>
       </c>
       <c r="D3436" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3436">
         <v>2017</v>
@@ -61257,7 +61260,7 @@
         <v>0</v>
       </c>
       <c r="D3437" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3437">
         <v>2017</v>
@@ -61274,7 +61277,7 @@
         <v>0</v>
       </c>
       <c r="D3438" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3438">
         <v>2017</v>
@@ -61291,7 +61294,7 @@
         <v>0</v>
       </c>
       <c r="D3439" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3439">
         <v>2017</v>
@@ -61308,7 +61311,7 @@
         <v>0</v>
       </c>
       <c r="D3440" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3440">
         <v>2017</v>
@@ -61325,7 +61328,7 @@
         <v>10</v>
       </c>
       <c r="D3441" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3441">
         <v>2017</v>
@@ -61342,7 +61345,7 @@
         <v>0</v>
       </c>
       <c r="D3442" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3442">
         <v>2017</v>
@@ -61359,7 +61362,7 @@
         <v>0</v>
       </c>
       <c r="D3443" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3443">
         <v>2017</v>
@@ -61376,7 +61379,7 @@
         <v>0</v>
       </c>
       <c r="D3444" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3444">
         <v>2017</v>
@@ -61393,7 +61396,7 @@
         <v>0</v>
       </c>
       <c r="D3445" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3445">
         <v>2017</v>
@@ -61410,7 +61413,7 @@
         <v>0</v>
       </c>
       <c r="D3446" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3446">
         <v>2017</v>
@@ -61427,7 +61430,7 @@
         <v>0</v>
       </c>
       <c r="D3447" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3447">
         <v>2017</v>
@@ -61444,7 +61447,7 @@
         <v>90</v>
       </c>
       <c r="D3448" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3448">
         <v>2017</v>
@@ -61461,7 +61464,7 @@
         <v>0</v>
       </c>
       <c r="D3449" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3449">
         <v>2017</v>
@@ -61478,7 +61481,7 @@
         <v>0</v>
       </c>
       <c r="D3450" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3450">
         <v>2017</v>
@@ -61495,7 +61498,7 @@
         <v>0</v>
       </c>
       <c r="D3451" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3451">
         <v>2017</v>
@@ -61512,7 +61515,7 @@
         <v>0</v>
       </c>
       <c r="D3452" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3452">
         <v>2017</v>
@@ -61529,7 +61532,7 @@
         <v>0</v>
       </c>
       <c r="D3453" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3453">
         <v>2017</v>
@@ -61546,7 +61549,7 @@
         <v>0</v>
       </c>
       <c r="D3454" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E3454">
         <v>2017</v>
@@ -61716,7 +61719,7 @@
         <v>0</v>
       </c>
       <c r="D3464" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E3464">
         <v>2015</v>
@@ -61733,7 +61736,7 @@
         <v>0</v>
       </c>
       <c r="D3465" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E3465">
         <v>2015</v>
@@ -61767,7 +61770,7 @@
         <v>0</v>
       </c>
       <c r="D3467" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E3467">
         <v>2015</v>
@@ -61801,7 +61804,7 @@
         <v>0</v>
       </c>
       <c r="D3469" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E3469">
         <v>2015</v>
@@ -61835,7 +61838,7 @@
         <v>0.0458</v>
       </c>
       <c r="D3471" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E3471">
         <v>2015</v>
@@ -61869,7 +61872,7 @@
         <v>0</v>
       </c>
       <c r="D3473" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E3473">
         <v>2015</v>
@@ -61903,7 +61906,7 @@
         <v>0</v>
       </c>
       <c r="D3475" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E3475">
         <v>2015</v>
@@ -61920,7 +61923,7 @@
         <v>0.0023</v>
       </c>
       <c r="D3476" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E3476">
         <v>2015</v>
@@ -62022,7 +62025,7 @@
         <v>0</v>
       </c>
       <c r="D3482" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E3482">
         <v>2015</v>
@@ -62056,7 +62059,7 @@
         <v>0</v>
       </c>
       <c r="D3484" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E3484">
         <v>2015</v>
@@ -62124,7 +62127,7 @@
         <v>0</v>
       </c>
       <c r="D3488" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E3488">
         <v>2015</v>
@@ -62141,7 +62144,7 @@
         <v>0</v>
       </c>
       <c r="D3489" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E3489">
         <v>2015</v>
@@ -62158,7 +62161,7 @@
         <v>0.0553</v>
       </c>
       <c r="D3490" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E3490">
         <v>2015</v>
@@ -62175,7 +62178,7 @@
         <v>0.0593</v>
       </c>
       <c r="D3491" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E3491">
         <v>2015</v>
@@ -62226,7 +62229,7 @@
         <v>0</v>
       </c>
       <c r="D3494" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E3494">
         <v>2015</v>
@@ -62260,7 +62263,7 @@
         <v>0.0107</v>
       </c>
       <c r="D3496" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E3496">
         <v>2015</v>
@@ -62277,7 +62280,7 @@
         <v>0</v>
       </c>
       <c r="D3497" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E3497">
         <v>2015</v>
@@ -62328,7 +62331,7 @@
         <v>0</v>
       </c>
       <c r="D3500" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E3500">
         <v>2015</v>
@@ -62362,7 +62365,7 @@
         <v>0</v>
       </c>
       <c r="D3502" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E3502">
         <v>2015</v>
@@ -62379,7 +62382,7 @@
         <v>0</v>
       </c>
       <c r="D3503" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E3503">
         <v>2015</v>
@@ -62396,7 +62399,7 @@
         <v>0</v>
       </c>
       <c r="D3504" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E3504">
         <v>2015</v>
@@ -62430,7 +62433,7 @@
         <v>0.0359</v>
       </c>
       <c r="D3506" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E3506">
         <v>2015</v>
@@ -62447,7 +62450,7 @@
         <v>0</v>
       </c>
       <c r="D3507" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E3507">
         <v>2015</v>
@@ -62481,7 +62484,7 @@
         <v>0</v>
       </c>
       <c r="D3509" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E3509">
         <v>2014</v>
@@ -62498,7 +62501,7 @@
         <v>0</v>
       </c>
       <c r="D3510" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E3510">
         <v>2014</v>
@@ -62617,7 +62620,7 @@
         <v>0</v>
       </c>
       <c r="D3517" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E3517">
         <v>2014</v>
@@ -62651,7 +62654,7 @@
         <v>0.1015</v>
       </c>
       <c r="D3519" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E3519">
         <v>2014</v>
@@ -62736,7 +62739,7 @@
         <v>0</v>
       </c>
       <c r="D3524" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E3524">
         <v>2014</v>
@@ -62804,7 +62807,7 @@
         <v>0</v>
       </c>
       <c r="D3528" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E3528">
         <v>2014</v>
@@ -62838,7 +62841,7 @@
         <v>0</v>
       </c>
       <c r="D3530" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E3530">
         <v>2014</v>
@@ -62855,7 +62858,7 @@
         <v>0.0061</v>
       </c>
       <c r="D3531" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E3531">
         <v>2014</v>
@@ -62974,7 +62977,7 @@
         <v>0.0409</v>
       </c>
       <c r="D3538" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E3538">
         <v>2014</v>
@@ -62991,7 +62994,7 @@
         <v>0</v>
       </c>
       <c r="D3539" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E3539">
         <v>2014</v>
@@ -63008,7 +63011,7 @@
         <v>0</v>
       </c>
       <c r="D3540" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E3540">
         <v>2014</v>
@@ -63025,7 +63028,7 @@
         <v>0</v>
       </c>
       <c r="D3541" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E3541">
         <v>2014</v>
@@ -63093,7 +63096,7 @@
         <v>0.0244</v>
       </c>
       <c r="D3545" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E3545">
         <v>2014</v>
@@ -63110,7 +63113,7 @@
         <v>0</v>
       </c>
       <c r="D3546" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E3546">
         <v>2014</v>
@@ -63127,7 +63130,7 @@
         <v>0</v>
       </c>
       <c r="D3547" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E3547">
         <v>2014</v>
@@ -63161,7 +63164,7 @@
         <v>0</v>
       </c>
       <c r="D3549" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E3549">
         <v>2013</v>
@@ -63195,7 +63198,7 @@
         <v>0</v>
       </c>
       <c r="D3551" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E3551">
         <v>2013</v>
@@ -63229,7 +63232,7 @@
         <v>0.013</v>
       </c>
       <c r="D3553" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E3553">
         <v>2013</v>
@@ -63246,7 +63249,7 @@
         <v>0</v>
       </c>
       <c r="D3554" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E3554">
         <v>2013</v>
@@ -63263,7 +63266,7 @@
         <v>0</v>
       </c>
       <c r="D3555" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E3555">
         <v>2013</v>
@@ -63280,7 +63283,7 @@
         <v>0</v>
       </c>
       <c r="D3556" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E3556">
         <v>2013</v>
@@ -63314,7 +63317,7 @@
         <v>0</v>
       </c>
       <c r="D3558" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E3558">
         <v>2013</v>
@@ -63348,7 +63351,7 @@
         <v>0.0378</v>
       </c>
       <c r="D3560" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E3560">
         <v>2013</v>
@@ -63365,7 +63368,7 @@
         <v>0</v>
       </c>
       <c r="D3561" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E3561">
         <v>2013</v>
@@ -63382,7 +63385,7 @@
         <v>0.0532</v>
       </c>
       <c r="D3562" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E3562">
         <v>2013</v>
@@ -63416,7 +63419,7 @@
         <v>0</v>
       </c>
       <c r="D3564" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E3564">
         <v>2013</v>
@@ -63433,7 +63436,7 @@
         <v>0</v>
       </c>
       <c r="D3565" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E3565">
         <v>2013</v>
@@ -63450,7 +63453,7 @@
         <v>0</v>
       </c>
       <c r="D3566" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E3566">
         <v>2013</v>
@@ -63501,7 +63504,7 @@
         <v>0</v>
       </c>
       <c r="D3569" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E3569">
         <v>2013</v>
@@ -63518,7 +63521,7 @@
         <v>0</v>
       </c>
       <c r="D3570" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E3570">
         <v>2013</v>
@@ -63535,7 +63538,7 @@
         <v>0</v>
       </c>
       <c r="D3571" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E3571">
         <v>2013</v>
@@ -63552,7 +63555,7 @@
         <v>0</v>
       </c>
       <c r="D3572" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E3572">
         <v>2013</v>
@@ -63586,7 +63589,7 @@
         <v>0</v>
       </c>
       <c r="D3574" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E3574">
         <v>2013</v>
@@ -63603,7 +63606,7 @@
         <v>0</v>
       </c>
       <c r="D3575" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E3575">
         <v>2013</v>
@@ -63620,7 +63623,7 @@
         <v>0</v>
       </c>
       <c r="D3576" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E3576">
         <v>2013</v>
@@ -63637,7 +63640,7 @@
         <v>0</v>
       </c>
       <c r="D3577" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E3577">
         <v>2016</v>
@@ -63654,7 +63657,7 @@
         <v>0</v>
       </c>
       <c r="D3578" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E3578">
         <v>2016</v>
@@ -63671,7 +63674,7 @@
         <v>0</v>
       </c>
       <c r="D3579" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E3579">
         <v>2016</v>
@@ -63688,7 +63691,7 @@
         <v>0</v>
       </c>
       <c r="D3580" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E3580">
         <v>2016</v>
@@ -63705,7 +63708,7 @@
         <v>0</v>
       </c>
       <c r="D3581" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E3581">
         <v>2016</v>
@@ -63722,7 +63725,7 @@
         <v>0</v>
       </c>
       <c r="D3582" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E3582">
         <v>2016</v>
@@ -63773,7 +63776,7 @@
         <v>0.0021</v>
       </c>
       <c r="D3585" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E3585">
         <v>2016</v>
@@ -63807,7 +63810,7 @@
         <v>0</v>
       </c>
       <c r="D3587" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E3587">
         <v>2016</v>
@@ -63858,7 +63861,7 @@
         <v>0</v>
       </c>
       <c r="D3590" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E3590">
         <v>2016</v>
@@ -63875,7 +63878,7 @@
         <v>0</v>
       </c>
       <c r="D3591" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E3591">
         <v>2016</v>
@@ -63909,7 +63912,7 @@
         <v>0</v>
       </c>
       <c r="D3593" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E3593">
         <v>2016</v>
@@ -63926,7 +63929,7 @@
         <v>0</v>
       </c>
       <c r="D3594" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E3594">
         <v>2016</v>
@@ -63960,7 +63963,7 @@
         <v>0</v>
       </c>
       <c r="D3596" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E3596">
         <v>2016</v>
@@ -63977,7 +63980,7 @@
         <v>0</v>
       </c>
       <c r="D3597" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E3597">
         <v>2016</v>
@@ -63994,7 +63997,7 @@
         <v>0</v>
       </c>
       <c r="D3598" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E3598">
         <v>2016</v>
@@ -64011,7 +64014,7 @@
         <v>0</v>
       </c>
       <c r="D3599" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E3599">
         <v>2016</v>
@@ -64028,7 +64031,7 @@
         <v>0</v>
       </c>
       <c r="D3600" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E3600">
         <v>2016</v>
@@ -64045,7 +64048,7 @@
         <v>0</v>
       </c>
       <c r="D3601" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E3601">
         <v>2016</v>
@@ -64062,7 +64065,7 @@
         <v>67.26000000000001</v>
       </c>
       <c r="D3602" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3602">
         <v>2015</v>
@@ -64079,7 +64082,7 @@
         <v>0</v>
       </c>
       <c r="D3603" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3603">
         <v>2015</v>
@@ -64096,7 +64099,7 @@
         <v>0</v>
       </c>
       <c r="D3604" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3604">
         <v>2015</v>
@@ -64113,7 +64116,7 @@
         <v>67.26000000000001</v>
       </c>
       <c r="D3605" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3605">
         <v>2013</v>
@@ -64130,7 +64133,7 @@
         <v>0</v>
       </c>
       <c r="D3606" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3606">
         <v>2013</v>
@@ -64147,7 +64150,7 @@
         <v>0</v>
       </c>
       <c r="D3607" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3607">
         <v>2013</v>
@@ -64164,7 +64167,7 @@
         <v>67.26000000000001</v>
       </c>
       <c r="D3608" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3608">
         <v>2014</v>
@@ -64181,7 +64184,7 @@
         <v>0</v>
       </c>
       <c r="D3609" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3609">
         <v>2014</v>
@@ -64198,7 +64201,7 @@
         <v>0</v>
       </c>
       <c r="D3610" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E3610">
         <v>2014</v>
@@ -64334,7 +64337,7 @@
         <v>0.3555</v>
       </c>
       <c r="D3618" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E3618">
         <v>2014</v>
@@ -64351,7 +64354,7 @@
         <v>0.063</v>
       </c>
       <c r="D3619" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E3619">
         <v>2014</v>
@@ -64385,7 +64388,7 @@
         <v>0</v>
       </c>
       <c r="D3621" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E3621">
         <v>2017</v>
@@ -64453,7 +64456,7 @@
         <v>0</v>
       </c>
       <c r="D3625" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E3625">
         <v>2017</v>
@@ -64657,7 +64660,7 @@
         <v>69.08</v>
       </c>
       <c r="D3637" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3637">
         <v>2013</v>
@@ -64674,7 +64677,7 @@
         <v>0.33</v>
       </c>
       <c r="D3638" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3638">
         <v>2013</v>
@@ -64691,7 +64694,7 @@
         <v>0.87</v>
       </c>
       <c r="D3639" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3639">
         <v>2013</v>
@@ -64708,7 +64711,7 @@
         <v>0.08</v>
       </c>
       <c r="D3640" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3640">
         <v>2013</v>
@@ -64725,7 +64728,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D3641" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3641">
         <v>2013</v>
@@ -64742,7 +64745,7 @@
         <v>26.2</v>
       </c>
       <c r="D3642" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3642">
         <v>2013</v>
@@ -64759,7 +64762,7 @@
         <v>0.11</v>
       </c>
       <c r="D3643" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3643">
         <v>2013</v>
@@ -64776,7 +64779,7 @@
         <v>0.04</v>
       </c>
       <c r="D3644" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3644">
         <v>2013</v>
@@ -64793,7 +64796,7 @@
         <v>0.17</v>
       </c>
       <c r="D3645" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3645">
         <v>2013</v>
@@ -64810,7 +64813,7 @@
         <v>0.14</v>
       </c>
       <c r="D3646" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3646">
         <v>2013</v>
@@ -64827,7 +64830,7 @@
         <v>0.62</v>
       </c>
       <c r="D3647" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3647">
         <v>2013</v>
@@ -64844,7 +64847,7 @@
         <v>0.13</v>
       </c>
       <c r="D3648" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3648">
         <v>2013</v>
@@ -64861,7 +64864,7 @@
         <v>0.08</v>
       </c>
       <c r="D3649" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3649">
         <v>2013</v>
@@ -64878,7 +64881,7 @@
         <v>0.05</v>
       </c>
       <c r="D3650" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3650">
         <v>2013</v>
@@ -64895,7 +64898,7 @@
         <v>0.34</v>
       </c>
       <c r="D3651" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3651">
         <v>2013</v>
@@ -64912,7 +64915,7 @@
         <v>0.26</v>
       </c>
       <c r="D3652" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3652">
         <v>2013</v>
@@ -64929,7 +64932,7 @@
         <v>0.18</v>
       </c>
       <c r="D3653" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3653">
         <v>2013</v>
@@ -64946,7 +64949,7 @@
         <v>0.19</v>
       </c>
       <c r="D3654" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3654">
         <v>2013</v>
@@ -64963,7 +64966,7 @@
         <v>0.12</v>
       </c>
       <c r="D3655" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3655">
         <v>2013</v>
@@ -64980,7 +64983,7 @@
         <v>0.06</v>
       </c>
       <c r="D3656" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E3656">
         <v>2013</v>
@@ -64997,7 +65000,7 @@
         <v>4.82</v>
       </c>
       <c r="D3657" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E3657">
         <v>2013</v>
@@ -65218,7 +65221,7 @@
         <v>0</v>
       </c>
       <c r="D3670" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3670">
         <v>2017</v>
@@ -65235,7 +65238,7 @@
         <v>0</v>
       </c>
       <c r="D3671" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3671">
         <v>2017</v>
@@ -65286,7 +65289,7 @@
         <v>0</v>
       </c>
       <c r="D3674" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3674">
         <v>2017</v>
@@ -65303,7 +65306,7 @@
         <v>0</v>
       </c>
       <c r="D3675" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3675">
         <v>2017</v>
@@ -65320,7 +65323,7 @@
         <v>0</v>
       </c>
       <c r="D3676" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3676">
         <v>2017</v>
@@ -65337,7 +65340,7 @@
         <v>0</v>
       </c>
       <c r="D3677" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3677">
         <v>2017</v>
@@ -65354,7 +65357,7 @@
         <v>0</v>
       </c>
       <c r="D3678" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3678">
         <v>2017</v>
@@ -65371,7 +65374,7 @@
         <v>0</v>
       </c>
       <c r="D3679" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3679">
         <v>2017</v>
@@ -65388,7 +65391,7 @@
         <v>0</v>
       </c>
       <c r="D3680" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3680">
         <v>2017</v>
@@ -65405,7 +65408,7 @@
         <v>0</v>
       </c>
       <c r="D3681" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3681">
         <v>2017</v>
@@ -65422,7 +65425,7 @@
         <v>0</v>
       </c>
       <c r="D3682" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3682">
         <v>2017</v>
@@ -65439,7 +65442,7 @@
         <v>0</v>
       </c>
       <c r="D3683" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3683">
         <v>2017</v>
@@ -65456,7 +65459,7 @@
         <v>0</v>
       </c>
       <c r="D3684" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3684">
         <v>2017</v>
@@ -65473,7 +65476,7 @@
         <v>0</v>
       </c>
       <c r="D3685" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3685">
         <v>2017</v>
@@ -65490,7 +65493,7 @@
         <v>0</v>
       </c>
       <c r="D3686" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3686">
         <v>2017</v>
@@ -65507,7 +65510,7 @@
         <v>0</v>
       </c>
       <c r="D3687" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3687">
         <v>2017</v>
@@ -65524,7 +65527,7 @@
         <v>25.04</v>
       </c>
       <c r="D3688" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3688">
         <v>2017</v>
@@ -65541,7 +65544,7 @@
         <v>0</v>
       </c>
       <c r="D3689" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3689">
         <v>2017</v>
@@ -65558,7 +65561,7 @@
         <v>0</v>
       </c>
       <c r="D3690" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3690">
         <v>2017</v>
@@ -65575,7 +65578,7 @@
         <v>0</v>
       </c>
       <c r="D3691" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3691">
         <v>2017</v>
@@ -65592,7 +65595,7 @@
         <v>0</v>
       </c>
       <c r="D3692" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3692">
         <v>2017</v>
@@ -65609,7 +65612,7 @@
         <v>0</v>
       </c>
       <c r="D3693" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3693">
         <v>2017</v>
@@ -65626,7 +65629,7 @@
         <v>0</v>
       </c>
       <c r="D3694" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3694">
         <v>2017</v>
@@ -65660,7 +65663,7 @@
         <v>0</v>
       </c>
       <c r="D3696" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3696">
         <v>2017</v>
@@ -65677,7 +65680,7 @@
         <v>0</v>
       </c>
       <c r="D3697" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3697">
         <v>2017</v>
@@ -65694,7 +65697,7 @@
         <v>0</v>
       </c>
       <c r="D3698" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3698">
         <v>2017</v>
@@ -65711,7 +65714,7 @@
         <v>0</v>
       </c>
       <c r="D3699" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3699">
         <v>2017</v>
@@ -65728,7 +65731,7 @@
         <v>74.95999999999999</v>
       </c>
       <c r="D3700" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3700">
         <v>2017</v>
@@ -65745,7 +65748,7 @@
         <v>0</v>
       </c>
       <c r="D3701" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3701">
         <v>2017</v>
@@ -65762,7 +65765,7 @@
         <v>0</v>
       </c>
       <c r="D3702" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3702">
         <v>2017</v>
@@ -65796,7 +65799,7 @@
         <v>0</v>
       </c>
       <c r="D3704" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3704">
         <v>2017</v>
@@ -65813,7 +65816,7 @@
         <v>0</v>
       </c>
       <c r="D3705" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3705">
         <v>2017</v>
@@ -65830,7 +65833,7 @@
         <v>0</v>
       </c>
       <c r="D3706" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3706">
         <v>2017</v>
@@ -65847,7 +65850,7 @@
         <v>0</v>
       </c>
       <c r="D3707" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3707">
         <v>2017</v>
@@ -65864,7 +65867,7 @@
         <v>0</v>
       </c>
       <c r="D3708" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3708">
         <v>2017</v>
@@ -65881,7 +65884,7 @@
         <v>0</v>
       </c>
       <c r="D3709" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3709">
         <v>2017</v>
@@ -65898,7 +65901,7 @@
         <v>0</v>
       </c>
       <c r="D3710" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3710">
         <v>2017</v>
@@ -65915,7 +65918,7 @@
         <v>0</v>
       </c>
       <c r="D3711" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E3711">
         <v>2017</v>
@@ -65932,7 +65935,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="D3712" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E3712">
         <v>2014</v>
@@ -65949,7 +65952,7 @@
         <v>6.38</v>
       </c>
       <c r="D3713" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E3713">
         <v>2014</v>
@@ -65966,7 +65969,7 @@
         <v>14.75</v>
       </c>
       <c r="D3714" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E3714">
         <v>2014</v>
@@ -65983,7 +65986,7 @@
         <v>3.195</v>
       </c>
       <c r="D3715" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3715">
         <v>2013</v>
@@ -66000,7 +66003,7 @@
         <v>3.0231</v>
       </c>
       <c r="D3716" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3716">
         <v>2013</v>
@@ -66017,7 +66020,7 @@
         <v>3.7077</v>
       </c>
       <c r="D3717" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3717">
         <v>2013</v>
@@ -66034,7 +66037,7 @@
         <v>0.8846000000000001</v>
       </c>
       <c r="D3718" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3718">
         <v>2013</v>
@@ -66051,7 +66054,7 @@
         <v>3.7692</v>
       </c>
       <c r="D3719" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3719">
         <v>2013</v>
@@ -66068,7 +66071,7 @@
         <v>69.255</v>
       </c>
       <c r="D3720" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3720">
         <v>2013</v>
@@ -66085,7 +66088,7 @@
         <v>3</v>
       </c>
       <c r="D3721" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3721">
         <v>2013</v>
@@ -66102,7 +66105,7 @@
         <v>4.6154</v>
       </c>
       <c r="D3722" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3722">
         <v>2013</v>
@@ -66119,7 +66122,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="D3723" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E3723">
         <v>2013</v>
@@ -66323,7 +66326,7 @@
         <v>0</v>
       </c>
       <c r="D3735" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E3735">
         <v>2014</v>
@@ -66340,7 +66343,7 @@
         <v>0</v>
       </c>
       <c r="D3736" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E3736">
         <v>2014</v>
@@ -66357,7 +66360,7 @@
         <v>0</v>
       </c>
       <c r="D3737" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E3737">
         <v>2014</v>
@@ -66374,7 +66377,7 @@
         <v>0</v>
       </c>
       <c r="D3738" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E3738">
         <v>2013</v>
@@ -66391,7 +66394,7 @@
         <v>0</v>
       </c>
       <c r="D3739" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E3739">
         <v>2013</v>
@@ -66408,7 +66411,7 @@
         <v>0</v>
       </c>
       <c r="D3740" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E3740">
         <v>2013</v>
@@ -66595,7 +66598,7 @@
         <v>5.5612</v>
       </c>
       <c r="D3751" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E3751">
         <v>2015</v>
@@ -66714,7 +66717,7 @@
         <v>25</v>
       </c>
       <c r="D3758" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E3758">
         <v>2017</v>
@@ -66850,7 +66853,7 @@
         <v>61.78</v>
       </c>
       <c r="D3766" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E3766">
         <v>2013</v>
@@ -66867,7 +66870,7 @@
         <v>0</v>
       </c>
       <c r="D3767" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E3767">
         <v>2013</v>
@@ -66884,7 +66887,7 @@
         <v>14.48</v>
       </c>
       <c r="D3768" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3768">
         <v>2014</v>
@@ -66901,7 +66904,7 @@
         <v>9.5</v>
       </c>
       <c r="D3769" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3769">
         <v>2014</v>
@@ -66918,7 +66921,7 @@
         <v>18.1</v>
       </c>
       <c r="D3770" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3770">
         <v>2014</v>
@@ -66935,7 +66938,7 @@
         <v>57.92</v>
       </c>
       <c r="D3771" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3771">
         <v>2014</v>
@@ -67122,7 +67125,7 @@
         <v>0</v>
       </c>
       <c r="D3782" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3782">
         <v>2017</v>
@@ -67139,7 +67142,7 @@
         <v>0</v>
       </c>
       <c r="D3783" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3783">
         <v>2017</v>
@@ -67156,7 +67159,7 @@
         <v>75</v>
       </c>
       <c r="D3784" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3784">
         <v>2017</v>
@@ -67173,7 +67176,7 @@
         <v>0</v>
       </c>
       <c r="D3785" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3785">
         <v>2017</v>
@@ -67190,7 +67193,7 @@
         <v>0</v>
       </c>
       <c r="D3786" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3786">
         <v>2017</v>
@@ -67207,7 +67210,7 @@
         <v>0</v>
       </c>
       <c r="D3787" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3787">
         <v>2017</v>
@@ -67224,7 +67227,7 @@
         <v>0</v>
       </c>
       <c r="D3788" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3788">
         <v>2017</v>
@@ -67241,7 +67244,7 @@
         <v>0</v>
       </c>
       <c r="D3789" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3789">
         <v>2017</v>
@@ -67258,7 +67261,7 @@
         <v>0</v>
       </c>
       <c r="D3790" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3790">
         <v>2017</v>
@@ -67275,7 +67278,7 @@
         <v>0</v>
       </c>
       <c r="D3791" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3791">
         <v>2017</v>
@@ -67292,7 +67295,7 @@
         <v>0</v>
       </c>
       <c r="D3792" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3792">
         <v>2017</v>
@@ -67309,7 +67312,7 @@
         <v>25</v>
       </c>
       <c r="D3793" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E3793">
         <v>2017</v>
@@ -67598,7 +67601,7 @@
         <v>0.86</v>
       </c>
       <c r="D3810" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3810">
         <v>2014</v>
@@ -67615,7 +67618,7 @@
         <v>4.73</v>
       </c>
       <c r="D3811" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3811">
         <v>2014</v>
@@ -67632,7 +67635,7 @@
         <v>0.96</v>
       </c>
       <c r="D3812" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3812">
         <v>2014</v>
@@ -67649,7 +67652,7 @@
         <v>89.7</v>
       </c>
       <c r="D3813" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3813">
         <v>2014</v>
@@ -68397,7 +68400,7 @@
         <v>2.87</v>
       </c>
       <c r="D3857" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3857">
         <v>2017</v>
@@ -68414,7 +68417,7 @@
         <v>3.69</v>
       </c>
       <c r="D3858" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3858">
         <v>2017</v>
@@ -68431,7 +68434,7 @@
         <v>1.65</v>
       </c>
       <c r="D3859" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3859">
         <v>2017</v>
@@ -68448,7 +68451,7 @@
         <v>25</v>
       </c>
       <c r="D3860" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3860">
         <v>2017</v>
@@ -68465,7 +68468,7 @@
         <v>2.78</v>
       </c>
       <c r="D3861" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3861">
         <v>2017</v>
@@ -68482,7 +68485,7 @@
         <v>33.89</v>
       </c>
       <c r="D3862" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3862">
         <v>2017</v>
@@ -68499,7 +68502,7 @@
         <v>0.97</v>
       </c>
       <c r="D3863" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3863">
         <v>2017</v>
@@ -68516,7 +68519,7 @@
         <v>8.68</v>
       </c>
       <c r="D3864" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3864">
         <v>2017</v>
@@ -68533,7 +68536,7 @@
         <v>3.33</v>
       </c>
       <c r="D3865" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3865">
         <v>2017</v>
@@ -68550,7 +68553,7 @@
         <v>3.96</v>
       </c>
       <c r="D3866" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3866">
         <v>2017</v>
@@ -68567,7 +68570,7 @@
         <v>3.86</v>
       </c>
       <c r="D3867" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3867">
         <v>2017</v>
@@ -68584,7 +68587,7 @@
         <v>3.6</v>
       </c>
       <c r="D3868" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3868">
         <v>2017</v>
@@ -68601,7 +68604,7 @@
         <v>3.78</v>
       </c>
       <c r="D3869" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3869">
         <v>2017</v>
@@ -68618,7 +68621,7 @@
         <v>0.29</v>
       </c>
       <c r="D3870" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E3870">
         <v>2017</v>
@@ -68635,7 +68638,7 @@
         <v>60.5385</v>
       </c>
       <c r="D3871" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3871">
         <v>2013</v>
@@ -68652,7 +68655,7 @@
         <v>0.0196</v>
       </c>
       <c r="D3872" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E3872">
         <v>2013</v>
@@ -68669,7 +68672,7 @@
         <v>0.025</v>
       </c>
       <c r="D3873" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3873">
         <v>2013</v>
@@ -68686,7 +68689,7 @@
         <v>0.0054</v>
       </c>
       <c r="D3874" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E3874">
         <v>2013</v>
@@ -68703,7 +68706,7 @@
         <v>6.42</v>
       </c>
       <c r="D3875" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E3875">
         <v>2015</v>
@@ -68720,7 +68723,7 @@
         <v>0</v>
       </c>
       <c r="D3876" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E3876">
         <v>2015</v>
@@ -68856,7 +68859,7 @@
         <v>54.25</v>
       </c>
       <c r="D3884" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E3884">
         <v>2014</v>
@@ -68890,7 +68893,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="D3886" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3886">
         <v>2014</v>
@@ -68924,7 +68927,7 @@
         <v>36.63</v>
       </c>
       <c r="D3888" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3888">
         <v>2014</v>
@@ -68941,7 +68944,7 @@
         <v>1.6</v>
       </c>
       <c r="D3889" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3889">
         <v>2014</v>
@@ -68975,7 +68978,7 @@
         <v>0.12</v>
       </c>
       <c r="D3891" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3891">
         <v>2014</v>
@@ -68992,7 +68995,7 @@
         <v>4.18</v>
       </c>
       <c r="D3892" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3892">
         <v>2014</v>
@@ -69043,7 +69046,7 @@
         <v>19.16</v>
       </c>
       <c r="D3895" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3895">
         <v>2014</v>
@@ -69111,7 +69114,7 @@
         <v>0.37</v>
       </c>
       <c r="D3899" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3899">
         <v>2014</v>
@@ -69213,7 +69216,7 @@
         <v>0.5</v>
       </c>
       <c r="D3905" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3905">
         <v>2014</v>
@@ -69230,7 +69233,7 @@
         <v>9.23</v>
       </c>
       <c r="D3906" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3906">
         <v>2014</v>
@@ -69247,7 +69250,7 @@
         <v>4.35</v>
       </c>
       <c r="D3907" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3907">
         <v>2014</v>
@@ -69264,7 +69267,7 @@
         <v>1.67</v>
       </c>
       <c r="D3908" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3908">
         <v>2014</v>
@@ -69281,7 +69284,7 @@
         <v>13.82</v>
       </c>
       <c r="D3909" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3909">
         <v>2014</v>
@@ -69298,7 +69301,7 @@
         <v>1.01</v>
       </c>
       <c r="D3910" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E3910">
         <v>2017</v>
@@ -69315,7 +69318,7 @@
         <v>0</v>
       </c>
       <c r="D3911" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E3911">
         <v>2017</v>
@@ -69434,7 +69437,7 @@
         <v>8.01</v>
       </c>
       <c r="D3918" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E3918">
         <v>2014</v>
@@ -69451,7 +69454,7 @@
         <v>2.5</v>
       </c>
       <c r="D3919" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E3919">
         <v>2014</v>
@@ -69468,7 +69471,7 @@
         <v>10</v>
       </c>
       <c r="D3920" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E3920">
         <v>2014</v>
@@ -69485,7 +69488,7 @@
         <v>1.5</v>
       </c>
       <c r="D3921" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E3921">
         <v>2014</v>
@@ -69502,7 +69505,7 @@
         <v>69.98999999999999</v>
       </c>
       <c r="D3922" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E3922">
         <v>2014</v>
@@ -69519,7 +69522,7 @@
         <v>2.8973</v>
       </c>
       <c r="D3923" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3923">
         <v>2017</v>
@@ -69536,7 +69539,7 @@
         <v>4.8949</v>
       </c>
       <c r="D3924" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3924">
         <v>2017</v>
@@ -69553,7 +69556,7 @@
         <v>4.0909</v>
       </c>
       <c r="D3925" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3925">
         <v>2017</v>
@@ -69570,7 +69573,7 @@
         <v>3.1285</v>
       </c>
       <c r="D3926" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3926">
         <v>2017</v>
@@ -69587,7 +69590,7 @@
         <v>2.3124</v>
       </c>
       <c r="D3927" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3927">
         <v>2017</v>
@@ -69604,7 +69607,7 @@
         <v>6.1987</v>
       </c>
       <c r="D3928" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3928">
         <v>2017</v>
@@ -69621,7 +69624,7 @@
         <v>58.2955</v>
       </c>
       <c r="D3929" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3929">
         <v>2017</v>
@@ -69638,7 +69641,7 @@
         <v>18.1818</v>
       </c>
       <c r="D3930" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E3930">
         <v>2017</v>
@@ -69689,7 +69692,7 @@
         <v>0.01</v>
       </c>
       <c r="D3933" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3933">
         <v>2014</v>
@@ -69706,7 +69709,7 @@
         <v>0.26</v>
       </c>
       <c r="D3934" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3934">
         <v>2014</v>
@@ -69740,7 +69743,7 @@
         <v>22.64</v>
       </c>
       <c r="D3936" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E3936">
         <v>2014</v>
@@ -69774,7 +69777,7 @@
         <v>0.09</v>
       </c>
       <c r="D3938" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E3938">
         <v>2013</v>
@@ -69791,7 +69794,7 @@
         <v>0.35</v>
       </c>
       <c r="D3939" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E3939">
         <v>2013</v>
@@ -69808,7 +69811,7 @@
         <v>7.66</v>
       </c>
       <c r="D3940" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E3940">
         <v>2013</v>
@@ -69825,7 +69828,7 @@
         <v>0.28</v>
       </c>
       <c r="D3941" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E3941">
         <v>2013</v>
@@ -69842,7 +69845,7 @@
         <v>1.24</v>
       </c>
       <c r="D3942" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E3942">
         <v>2013</v>
@@ -69859,7 +69862,7 @@
         <v>1.96</v>
       </c>
       <c r="D3943" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E3943">
         <v>2013</v>
@@ -69876,7 +69879,7 @@
         <v>0.2</v>
       </c>
       <c r="D3944" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E3944">
         <v>2013</v>
@@ -69893,7 +69896,7 @@
         <v>2.99</v>
       </c>
       <c r="D3945" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E3945">
         <v>2016</v>
@@ -69910,7 +69913,7 @@
         <v>4.67</v>
       </c>
       <c r="D3946" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E3946">
         <v>2016</v>
@@ -70046,7 +70049,7 @@
         <v>0</v>
       </c>
       <c r="D3954" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E3954">
         <v>2016</v>
@@ -70148,7 +70151,7 @@
         <v>3.704</v>
       </c>
       <c r="D3960" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3960">
         <v>2016</v>
@@ -70165,7 +70168,7 @@
         <v>3.4514</v>
       </c>
       <c r="D3961" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3961">
         <v>2016</v>
@@ -70182,7 +70185,7 @@
         <v>3.7038</v>
       </c>
       <c r="D3962" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3962">
         <v>2016</v>
@@ -70199,7 +70202,7 @@
         <v>0</v>
       </c>
       <c r="D3963" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3963">
         <v>2016</v>
@@ -70216,7 +70219,7 @@
         <v>5</v>
       </c>
       <c r="D3964" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3964">
         <v>2016</v>
@@ -70233,7 +70236,7 @@
         <v>7</v>
       </c>
       <c r="D3965" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3965">
         <v>2016</v>
@@ -70250,7 +70253,7 @@
         <v>0.7408</v>
       </c>
       <c r="D3966" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3966">
         <v>2016</v>
@@ -70267,7 +70270,7 @@
         <v>4.8148</v>
       </c>
       <c r="D3967" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3967">
         <v>2016</v>
@@ -70284,7 +70287,7 @@
         <v>4.407</v>
       </c>
       <c r="D3968" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3968">
         <v>2016</v>
@@ -70301,7 +70304,7 @@
         <v>15.4375</v>
       </c>
       <c r="D3969" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E3969">
         <v>2016</v>
@@ -70318,7 +70321,7 @@
         <v>26</v>
       </c>
       <c r="D3970" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E3970">
         <v>2016</v>
@@ -70335,7 +70338,7 @@
         <v>0</v>
       </c>
       <c r="D3971" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E3971">
         <v>2016</v>
@@ -70352,7 +70355,7 @@
         <v>11</v>
       </c>
       <c r="D3972" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E3972">
         <v>2016</v>
@@ -70471,7 +70474,7 @@
         <v>4.56</v>
       </c>
       <c r="D3979" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3979">
         <v>2014</v>
@@ -70488,7 +70491,7 @@
         <v>44.74</v>
       </c>
       <c r="D3980" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3980">
         <v>2014</v>
@@ -70505,7 +70508,7 @@
         <v>6.36</v>
       </c>
       <c r="D3981" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3981">
         <v>2014</v>
@@ -70522,7 +70525,7 @@
         <v>10.53</v>
       </c>
       <c r="D3982" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3982">
         <v>2014</v>
@@ -70539,7 +70542,7 @@
         <v>28.32</v>
       </c>
       <c r="D3983" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3983">
         <v>2014</v>
@@ -70556,7 +70559,7 @@
         <v>5.49</v>
       </c>
       <c r="D3984" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3984">
         <v>2014</v>
@@ -70590,7 +70593,7 @@
         <v>0</v>
       </c>
       <c r="D3986" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E3986">
         <v>2016</v>
@@ -70981,7 +70984,7 @@
         <v>0.4</v>
       </c>
       <c r="D4009" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4009">
         <v>2013</v>
@@ -70998,7 +71001,7 @@
         <v>0.9</v>
       </c>
       <c r="D4010" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4010">
         <v>2013</v>
@@ -71015,7 +71018,7 @@
         <v>0.3</v>
       </c>
       <c r="D4011" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4011">
         <v>2013</v>
@@ -71032,7 +71035,7 @@
         <v>0.6</v>
       </c>
       <c r="D4012" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4012">
         <v>2013</v>
@@ -71049,7 +71052,7 @@
         <v>3.7</v>
       </c>
       <c r="D4013" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4013">
         <v>2013</v>
@@ -71066,7 +71069,7 @@
         <v>0.6</v>
       </c>
       <c r="D4014" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4014">
         <v>2013</v>
@@ -71083,7 +71086,7 @@
         <v>88.2</v>
       </c>
       <c r="D4015" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E4015">
         <v>2013</v>
@@ -71100,7 +71103,7 @@
         <v>1.2</v>
       </c>
       <c r="D4016" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E4016">
         <v>2013</v>
@@ -71151,7 +71154,7 @@
         <v>1.67</v>
       </c>
       <c r="D4019" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E4019">
         <v>2015</v>
@@ -71168,7 +71171,7 @@
         <v>72.67</v>
       </c>
       <c r="D4020" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E4020">
         <v>2015</v>
@@ -71185,7 +71188,7 @@
         <v>4.67</v>
       </c>
       <c r="D4021" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E4021">
         <v>2015</v>
@@ -71202,7 +71205,7 @@
         <v>0</v>
       </c>
       <c r="D4022" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E4022">
         <v>2015</v>
@@ -71389,7 +71392,7 @@
         <v>0</v>
       </c>
       <c r="D4033" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E4033">
         <v>2016</v>
@@ -71406,7 +71409,7 @@
         <v>0.05</v>
       </c>
       <c r="D4034" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E4034">
         <v>2017</v>
@@ -71423,7 +71426,7 @@
         <v>0.05</v>
       </c>
       <c r="D4035" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E4035">
         <v>2017</v>
@@ -71440,7 +71443,7 @@
         <v>0</v>
       </c>
       <c r="D4036" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E4036">
         <v>2017</v>
@@ -71474,7 +71477,7 @@
         <v>21.52</v>
       </c>
       <c r="D4038" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E4038">
         <v>2013</v>
@@ -71525,7 +71528,7 @@
         <v>20.05</v>
       </c>
       <c r="D4041" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E4041">
         <v>2014</v>
@@ -71627,7 +71630,7 @@
         <v>0.2163</v>
       </c>
       <c r="D4047" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E4047">
         <v>2014</v>
@@ -71678,7 +71681,7 @@
         <v>0.0542</v>
       </c>
       <c r="D4050" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E4050">
         <v>2014</v>
@@ -71712,7 +71715,7 @@
         <v>0.0526</v>
       </c>
       <c r="D4052" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E4052">
         <v>2014</v>
@@ -71729,7 +71732,7 @@
         <v>0.051</v>
       </c>
       <c r="D4053" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E4053">
         <v>2014</v>
@@ -71746,7 +71749,7 @@
         <v>0.0692</v>
       </c>
       <c r="D4054" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E4054">
         <v>2014</v>
@@ -71916,7 +71919,7 @@
         <v>0.83</v>
       </c>
       <c r="D4064" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E4064">
         <v>2015</v>
@@ -71933,7 +71936,7 @@
         <v>0.62</v>
       </c>
       <c r="D4065" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E4065">
         <v>2016</v>
@@ -71950,7 +71953,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D4066" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E4066">
         <v>2016</v>
@@ -71967,7 +71970,7 @@
         <v>0.83</v>
       </c>
       <c r="D4067" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E4067">
         <v>2016</v>
@@ -71984,7 +71987,7 @@
         <v>0.77</v>
       </c>
       <c r="D4068" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E4068">
         <v>2016</v>
@@ -72001,7 +72004,7 @@
         <v>33.6734</v>
       </c>
       <c r="D4069" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E4069">
         <v>2015</v>
@@ -72018,7 +72021,7 @@
         <v>66.3266</v>
       </c>
       <c r="D4070" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E4070">
         <v>2015</v>
@@ -72035,7 +72038,7 @@
         <v>56.525</v>
       </c>
       <c r="D4071" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E4071">
         <v>2014</v>
@@ -72103,7 +72106,7 @@
         <v>21.08</v>
       </c>
       <c r="D4075" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E4075">
         <v>2017</v>
@@ -72443,7 +72446,7 @@
         <v>0</v>
       </c>
       <c r="D4095" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E4095">
         <v>2014</v>
@@ -72460,7 +72463,7 @@
         <v>53.88</v>
       </c>
       <c r="D4096" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E4096">
         <v>2015</v>
@@ -72477,7 +72480,7 @@
         <v>46.12</v>
       </c>
       <c r="D4097" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E4097">
         <v>2015</v>
@@ -72613,7 +72616,7 @@
         <v>17.12</v>
       </c>
       <c r="D4105" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E4105">
         <v>2013</v>
@@ -72630,7 +72633,7 @@
         <v>13.67</v>
       </c>
       <c r="D4106" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E4106">
         <v>2013</v>
@@ -72647,7 +72650,7 @@
         <v>4.93</v>
       </c>
       <c r="D4107" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E4107">
         <v>2014</v>
@@ -72732,7 +72735,7 @@
         <v>59.98</v>
       </c>
       <c r="D4112" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E4112">
         <v>2013</v>
@@ -72749,7 +72752,7 @@
         <v>40.02</v>
       </c>
       <c r="D4113" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E4113">
         <v>2013</v>
@@ -72766,7 +72769,7 @@
         <v>63.21</v>
       </c>
       <c r="D4114" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E4114">
         <v>2013</v>
@@ -72783,7 +72786,7 @@
         <v>36.79</v>
       </c>
       <c r="D4115" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E4115">
         <v>2013</v>
@@ -72970,7 +72973,7 @@
         <v>16.76</v>
       </c>
       <c r="D4126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4126">
         <v>2015</v>
@@ -72987,7 +72990,7 @@
         <v>9.31</v>
       </c>
       <c r="D4127" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4127">
         <v>2015</v>
@@ -73004,7 +73007,7 @@
         <v>15.17</v>
       </c>
       <c r="D4128" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4128">
         <v>2015</v>
@@ -73021,7 +73024,7 @@
         <v>9.31</v>
       </c>
       <c r="D4129" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4129">
         <v>2016</v>
@@ -73038,7 +73041,7 @@
         <v>16.76</v>
       </c>
       <c r="D4130" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4130">
         <v>2016</v>
@@ -73055,7 +73058,7 @@
         <v>15.17</v>
       </c>
       <c r="D4131" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4131">
         <v>2016</v>
@@ -73140,7 +73143,7 @@
         <v>1.18</v>
       </c>
       <c r="D4136" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4136">
         <v>2016</v>
@@ -73157,7 +73160,7 @@
         <v>0.88</v>
       </c>
       <c r="D4137" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4137">
         <v>2016</v>
@@ -73174,7 +73177,7 @@
         <v>0.45</v>
       </c>
       <c r="D4138" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4138">
         <v>2016</v>
@@ -73191,7 +73194,7 @@
         <v>28.36</v>
       </c>
       <c r="D4139" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4139">
         <v>2016</v>
@@ -73208,7 +73211,7 @@
         <v>16.76</v>
       </c>
       <c r="D4140" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4140">
         <v>2016</v>
@@ -73225,7 +73228,7 @@
         <v>0.12</v>
       </c>
       <c r="D4141" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4141">
         <v>2016</v>
@@ -73242,7 +73245,7 @@
         <v>0.83</v>
       </c>
       <c r="D4142" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4142">
         <v>2016</v>
@@ -73259,7 +73262,7 @@
         <v>42.65</v>
       </c>
       <c r="D4143" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4143">
         <v>2016</v>
@@ -73276,7 +73279,7 @@
         <v>8.619999999999999</v>
       </c>
       <c r="D4144" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4144">
         <v>2016</v>
@@ -73293,7 +73296,7 @@
         <v>52.74</v>
       </c>
       <c r="D4145" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E4145">
         <v>2013</v>
@@ -73310,7 +73313,7 @@
         <v>28.11</v>
       </c>
       <c r="D4146" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E4146">
         <v>2013</v>
@@ -73327,7 +73330,7 @@
         <v>19.15</v>
       </c>
       <c r="D4147" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E4147">
         <v>2013</v>
@@ -73565,7 +73568,7 @@
         <v>21.88</v>
       </c>
       <c r="D4161" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E4161">
         <v>2015</v>
@@ -73650,7 +73653,7 @@
         <v>0</v>
       </c>
       <c r="D4166" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E4166">
         <v>2017</v>
@@ -73667,7 +73670,7 @@
         <v>13.95</v>
       </c>
       <c r="D4167" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4167">
         <v>2017</v>
@@ -73684,7 +73687,7 @@
         <v>0.31</v>
       </c>
       <c r="D4168" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4168">
         <v>2017</v>
@@ -73701,7 +73704,7 @@
         <v>4.99</v>
       </c>
       <c r="D4169" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4169">
         <v>2017</v>
@@ -73718,7 +73721,7 @@
         <v>0.22</v>
       </c>
       <c r="D4170" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4170">
         <v>2017</v>
@@ -73735,7 +73738,7 @@
         <v>1.46</v>
       </c>
       <c r="D4171" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4171">
         <v>2017</v>
@@ -73752,7 +73755,7 @@
         <v>10.19</v>
       </c>
       <c r="D4172" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4172">
         <v>2017</v>
@@ -73769,7 +73772,7 @@
         <v>0.33</v>
       </c>
       <c r="D4173" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E4173">
         <v>2017</v>
@@ -73786,7 +73789,7 @@
         <v>26.42</v>
       </c>
       <c r="D4174" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4174">
         <v>2017</v>
@@ -73803,7 +73806,7 @@
         <v>69.26000000000001</v>
       </c>
       <c r="D4175" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4175">
         <v>2017</v>
@@ -73820,7 +73823,7 @@
         <v>69.26000000000001</v>
       </c>
       <c r="D4176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4176">
         <v>2017</v>
@@ -73837,7 +73840,7 @@
         <v>26.42</v>
       </c>
       <c r="D4177" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4177">
         <v>2017</v>
@@ -73854,7 +73857,7 @@
         <v>30.74</v>
       </c>
       <c r="D4178" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4178">
         <v>2017</v>
@@ -73871,7 +73874,7 @@
         <v>73.58</v>
       </c>
       <c r="D4179" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4179">
         <v>2017</v>
@@ -73888,7 +73891,7 @@
         <v>30.74</v>
       </c>
       <c r="D4180" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4180">
         <v>2017</v>
@@ -73905,7 +73908,7 @@
         <v>26.42</v>
       </c>
       <c r="D4181" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4181">
         <v>2017</v>
@@ -73922,7 +73925,7 @@
         <v>73.58</v>
       </c>
       <c r="D4182" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4182">
         <v>2017</v>
@@ -73939,7 +73942,7 @@
         <v>26.42</v>
       </c>
       <c r="D4183" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4183">
         <v>2017</v>
@@ -73956,7 +73959,7 @@
         <v>73.58</v>
       </c>
       <c r="D4184" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4184">
         <v>2017</v>
@@ -73973,7 +73976,7 @@
         <v>73.58</v>
       </c>
       <c r="D4185" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4185">
         <v>2017</v>
@@ -73990,7 +73993,7 @@
         <v>30.74</v>
       </c>
       <c r="D4186" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4186">
         <v>2017</v>
@@ -74007,7 +74010,7 @@
         <v>30.74</v>
       </c>
       <c r="D4187" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E4187">
         <v>2017</v>
@@ -74024,7 +74027,7 @@
         <v>69.26000000000001</v>
       </c>
       <c r="D4188" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4188">
         <v>2017</v>
@@ -74041,7 +74044,7 @@
         <v>69.26000000000001</v>
       </c>
       <c r="D4189" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4189">
         <v>2017</v>
@@ -74075,7 +74078,7 @@
         <v>0.92</v>
       </c>
       <c r="D4191" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E4191">
         <v>2016</v>
@@ -74347,7 +74350,7 @@
         <v>4.46</v>
       </c>
       <c r="D4207" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E4207">
         <v>2016</v>
@@ -74364,7 +74367,7 @@
         <v>6.75</v>
       </c>
       <c r="D4208" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E4208">
         <v>2016</v>
@@ -74381,7 +74384,7 @@
         <v>1.56</v>
       </c>
       <c r="D4209" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E4209">
         <v>2016</v>
@@ -74398,7 +74401,7 @@
         <v>8</v>
       </c>
       <c r="D4210" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E4210">
         <v>2016</v>
@@ -74432,7 +74435,7 @@
         <v>1.69</v>
       </c>
       <c r="D4212" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E4212">
         <v>2016</v>
@@ -74466,7 +74469,7 @@
         <v>7.91</v>
       </c>
       <c r="D4214" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E4214">
         <v>2016</v>
@@ -74483,7 +74486,7 @@
         <v>12.99</v>
       </c>
       <c r="D4215" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E4215">
         <v>2017</v>
@@ -74500,7 +74503,7 @@
         <v>1.87</v>
       </c>
       <c r="D4216" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E4216">
         <v>2017</v>
@@ -74517,7 +74520,7 @@
         <v>6.07</v>
       </c>
       <c r="D4217" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E4217">
         <v>2017</v>
@@ -74551,7 +74554,7 @@
         <v>2.91</v>
       </c>
       <c r="D4219" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E4219">
         <v>2017</v>
@@ -74568,7 +74571,7 @@
         <v>2.58</v>
       </c>
       <c r="D4220" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E4220">
         <v>2017</v>
@@ -74602,7 +74605,7 @@
         <v>5.93</v>
       </c>
       <c r="D4222" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E4222">
         <v>2017</v>
@@ -74687,7 +74690,7 @@
         <v>5.09</v>
       </c>
       <c r="D4227" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E4227">
         <v>2016</v>
@@ -74704,7 +74707,7 @@
         <v>0</v>
       </c>
       <c r="D4228" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E4228">
         <v>2016</v>
@@ -74721,7 +74724,7 @@
         <v>19</v>
       </c>
       <c r="D4229" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E4229">
         <v>2016</v>
@@ -74738,7 +74741,7 @@
         <v>4.48</v>
       </c>
       <c r="D4230" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E4230">
         <v>2016</v>
@@ -74755,7 +74758,7 @@
         <v>3.92</v>
       </c>
       <c r="D4231" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E4231">
         <v>2016</v>
@@ -74772,7 +74775,7 @@
         <v>1.24</v>
       </c>
       <c r="D4232" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E4232">
         <v>2016</v>
@@ -74789,7 +74792,7 @@
         <v>66.27</v>
       </c>
       <c r="D4233" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E4233">
         <v>2016</v>
@@ -74806,7 +74809,7 @@
         <v>51.22</v>
       </c>
       <c r="D4234" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E4234">
         <v>2016</v>
@@ -74823,7 +74826,7 @@
         <v>24.16</v>
       </c>
       <c r="D4235" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E4235">
         <v>2016</v>
@@ -74840,7 +74843,7 @@
         <v>21.23</v>
       </c>
       <c r="D4236" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E4236">
         <v>2016</v>
@@ -74857,7 +74860,7 @@
         <v>3.39</v>
       </c>
       <c r="D4237" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E4237">
         <v>2016</v>
@@ -75163,7 +75166,7 @@
         <v>1.28</v>
       </c>
       <c r="D4255" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E4255">
         <v>2016</v>
@@ -75231,7 +75234,7 @@
         <v>62.88</v>
       </c>
       <c r="D4259" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E4259">
         <v>2014</v>
@@ -75248,7 +75251,7 @@
         <v>37.12</v>
       </c>
       <c r="D4260" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E4260">
         <v>2014</v>
@@ -75384,7 +75387,7 @@
         <v>7.28</v>
       </c>
       <c r="D4268" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E4268">
         <v>2017</v>
@@ -75707,7 +75710,7 @@
         <v>1.59</v>
       </c>
       <c r="D4287" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E4287">
         <v>2014</v>
@@ -75758,7 +75761,7 @@
         <v>10.2</v>
       </c>
       <c r="D4290" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E4290">
         <v>2014</v>
@@ -75809,7 +75812,7 @@
         <v>1.77</v>
       </c>
       <c r="D4293" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E4293">
         <v>2013</v>
@@ -75826,7 +75829,7 @@
         <v>3.82</v>
       </c>
       <c r="D4294" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E4294">
         <v>2014</v>
@@ -75843,7 +75846,7 @@
         <v>0.25</v>
       </c>
       <c r="D4295" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E4295">
         <v>2014</v>
@@ -75860,7 +75863,7 @@
         <v>6.63</v>
       </c>
       <c r="D4296" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E4296">
         <v>2014</v>
@@ -75945,7 +75948,7 @@
         <v>25.02</v>
       </c>
       <c r="D4301" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E4301">
         <v>2017</v>
